--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef.sharepoint.com/teams/work-8759/Shared Documents/WP4/T4.2/RIDB_DWC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{BFC7882F-1D2E-424A-B02E-1DACFC800329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FFB51D-EB2A-134A-91C3-73CECD19288D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C20816-7F10-CB46-AD98-911B773DDD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="26900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -1405,9 +1405,6 @@
 66: DDoS Protection</t>
   </si>
   <si>
-    <t>26,27,28,46, 50, 58, 60</t>
-  </si>
-  <si>
     <t>26: ProcedureForPersonnelChanges
 27: EmployeesTrainings
 28: SecurityCheckOfEmployees
@@ -1635,6 +1632,9 @@
   </si>
   <si>
     <t xml:space="preserve">Need check from Berlin </t>
+  </si>
+  <si>
+    <t>26,27,28,30, 33, 43, 46, 47, 50, 58, 60</t>
   </si>
 </sst>
 </file>
@@ -2363,21 +2363,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2425,6 +2410,21 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2764,31 +2764,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>55</v>
       </c>
       <c r="H30" s="11" t="str">
-        <f t="shared" ref="H30:H31" si="2">CONCATENATE(B30," generates a ",C30," caused ",D30," of ",E30," affecting ",F30,"; which might lead to a ",G30," issue")</f>
+        <f>CONCATENATE(B30," generates a ",C30," caused ",D30," of ",E30," affecting ",F30,"; which might lead to a ",G30," issue")</f>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting drinking water tanks; which might lead to a quantity issue</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -4077,7 +4077,7 @@
         <v>55</v>
       </c>
       <c r="H31" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(B31," generates a ",C31," caused ",D31," of ",E31," affecting ",F31,"; which might lead to a ",G31," issue")</f>
         <v>External attacker generates a cyber-physical caused manipulation of transmission devices affecting drinking water tanks; which might lead to a quantity issue</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -4151,7 +4151,7 @@
         <v>55</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f t="shared" ref="H33:H50" si="3">CONCATENATE(B33," generates a ",C33," caused ",D33," of ",E33," affecting ",F33,"; which might lead to a ",G33," issue")</f>
+        <f t="shared" ref="H33:H50" si="2">CONCATENATE(B33," generates a ",C33," caused ",D33," of ",E33," affecting ",F33,"; which might lead to a ",G33," issue")</f>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -4194,7 +4194,7 @@
         <v>55</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Interdependent CI generates a physical caused interruption of power transformer affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -4224,7 +4224,7 @@
         <v>55</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Interdependent CI generates a physical caused interruption of power transformer affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -4261,7 +4261,7 @@
         <v>55</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused destruction of transmission devices affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4300,7 +4300,7 @@
         <v>55</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a physical caused destruction of power transformer affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I37" s="17" t="s">
@@ -4337,7 +4337,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a physical caused destruction of power transformer affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I38" s="11"/>
@@ -4372,7 +4372,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -4411,7 +4411,7 @@
         <v>48</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting water treatment plant; which might lead to a quality issue</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -4450,7 +4450,7 @@
         <v>55</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -4491,7 +4491,7 @@
         <v>55</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting catchment area; which might lead to a quantity issue</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -4524,7 +4524,7 @@
         <v>55</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of transmission devices affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I43" s="11" t="s">
@@ -4565,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting catchment area; which might lead to a quantity issue</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -4595,7 +4595,7 @@
         <v>48</v>
       </c>
       <c r="H45" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting water treatment plant; which might lead to a quality issue</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -4636,7 +4636,7 @@
         <v>48</v>
       </c>
       <c r="H46" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting wastewater treatment plant; which might lead to a quality issue</v>
       </c>
       <c r="I46" s="15" t="s">
@@ -4679,7 +4679,7 @@
         <v>55</v>
       </c>
       <c r="H47" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Human fault generates a physical caused manipulation of valve affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I47" s="15" t="s">
@@ -4716,7 +4716,7 @@
         <v>55</v>
       </c>
       <c r="H48" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused destruction of control center affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I48" s="15" t="s">
@@ -4755,7 +4755,7 @@
         <v>55</v>
       </c>
       <c r="H49" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Human fault generates a cyber-physical caused destruction of control center affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I49" s="15" t="s">
@@ -4794,7 +4794,7 @@
         <v>48</v>
       </c>
       <c r="H50" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I50" s="15" t="s">
@@ -4833,7 +4833,7 @@
         <v>153</v>
       </c>
       <c r="H51" s="11" t="str">
-        <f t="shared" ref="H51:H52" si="4">CONCATENATE(B51," generates a ",C51," caused ",D51," of ",E51,"; which might lead to a ",G51," issue")</f>
+        <f>CONCATENATE(B51," generates a ",C51," caused ",D51," of ",E51,"; which might lead to a ",G51," issue")</f>
         <v>External attacker generates a cyber caused manipulation of server; which might lead to a financial issue</v>
       </c>
       <c r="I51" s="15" t="s">
@@ -4876,7 +4876,7 @@
         <v>153</v>
       </c>
       <c r="H52" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(B52," generates a ",C52," caused ",D52," of ",E52,"; which might lead to a ",G52," issue")</f>
         <v>Internal attacker generates a cyber caused manipulation of server; which might lead to a financial issue</v>
       </c>
       <c r="I52" s="15" t="s">
@@ -4915,7 +4915,7 @@
         <v>55</v>
       </c>
       <c r="H53" s="11" t="str">
-        <f t="shared" ref="H53:H70" si="5">CONCATENATE(B53," generates a ",C53," caused ",D53," of ",E53," affecting ",F53,"; which might lead to a ",G53," issue")</f>
+        <f t="shared" ref="H53:H70" si="3">CONCATENATE(B53," generates a ",C53," caused ",D53," of ",E53," affecting ",F53,"; which might lead to a ",G53," issue")</f>
         <v>External attacker generates a cyber caused manipulation of transferred information affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I53" s="15" t="s">
@@ -4952,7 +4952,7 @@
         <v>48</v>
       </c>
       <c r="H54" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber caused manipulation of transferred information affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I54" s="15" t="s">
@@ -4991,7 +4991,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused destruction of control system affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
       <c r="I55" s="15" t="s">
@@ -5028,7 +5028,7 @@
         <v>48</v>
       </c>
       <c r="H56" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused destruction of control system affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I56" s="15" t="s">
@@ -5065,7 +5065,7 @@
         <v>48</v>
       </c>
       <c r="H57" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused destruction of dosing system affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I57" s="15" t="s">
@@ -5102,7 +5102,7 @@
         <v>168</v>
       </c>
       <c r="H58" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting drinking water tanks; which might lead to a reputation issue</v>
       </c>
       <c r="I58" s="15" t="s">
@@ -5139,7 +5139,7 @@
         <v>168</v>
       </c>
       <c r="H59" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Human fault generates a cyber-physical caused manipulation of control system affecting drinking water tanks; which might lead to a reputation issue</v>
       </c>
       <c r="I59" s="15" t="s">
@@ -5176,7 +5176,7 @@
         <v>55</v>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External supplier generates a cyber-physical caused manipulation of control system affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I60" s="15" t="s">
@@ -5213,7 +5213,7 @@
         <v>168</v>
       </c>
       <c r="H61" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting drinking water network; which might lead to a reputation issue</v>
       </c>
       <c r="I61" s="15" t="s">
@@ -5252,7 +5252,7 @@
         <v>48</v>
       </c>
       <c r="H62" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused pollution of drinking water pipes affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I62" s="18" t="s">
@@ -5289,7 +5289,7 @@
         <v>48</v>
       </c>
       <c r="H63" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused manipulation of sensors affecting drinking water network; which might lead to a quality issue</v>
       </c>
       <c r="I63" s="18" t="s">
@@ -5323,7 +5323,7 @@
         <v>47</v>
       </c>
       <c r="H64" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Interdependent CI generates a physical caused pollution of surface water affecting raw water bodies; which might lead to a  issue</v>
       </c>
       <c r="I64" s="15" t="s">
@@ -5360,7 +5360,7 @@
         <v>55</v>
       </c>
       <c r="H65" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused manipulation of valve affecting water treatment plant; which might lead to a quantity issue</v>
       </c>
       <c r="I65" s="15" t="s">
@@ -5397,7 +5397,7 @@
         <v>55</v>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting raw water bodies; which might lead to a quantity issue</v>
       </c>
       <c r="I66" s="15" t="s">
@@ -5434,7 +5434,7 @@
         <v>55</v>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused manipulation of pump affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I67" s="15" t="s">
@@ -5471,7 +5471,7 @@
         <v>55</v>
       </c>
       <c r="H68" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused manipulation of valve affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I68" s="15" t="s">
@@ -5510,7 +5510,7 @@
         <v>55</v>
       </c>
       <c r="H69" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a physical caused manipulation of drinking water pipes affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I69" s="15" t="s">
@@ -5547,7 +5547,7 @@
         <v>55</v>
       </c>
       <c r="H70" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>External attacker generates a cyber-physical caused manipulation of control system affecting drinking water network; which might lead to a quantity issue</v>
       </c>
       <c r="I70" s="15" t="s">
@@ -5748,7 +5748,7 @@
         <v>55</v>
       </c>
       <c r="H75" s="11" t="str">
-        <f t="shared" ref="H75:H81" si="6">CONCATENATE(B75," generates a ",C75," caused ",D75," of ",E75,"; which might lead to a ",G75," issue")</f>
+        <f t="shared" ref="H75:H81" si="4">CONCATENATE(B75," generates a ",C75," caused ",D75," of ",E75,"; which might lead to a ",G75," issue")</f>
         <v>External attacker generates a cyber caused manipulation of server; which might lead to a quantity issue</v>
       </c>
       <c r="I75" s="20" t="s">
@@ -5791,7 +5791,7 @@
         <v>168</v>
       </c>
       <c r="H76" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>External attacker generates a cyber caused manipulation of server; which might lead to a reputation issue</v>
       </c>
       <c r="I76" s="20" t="s">
@@ -5834,7 +5834,7 @@
         <v>168</v>
       </c>
       <c r="H77" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Human fault generates a cyber caused manipulation of server; which might lead to a reputation issue</v>
       </c>
       <c r="I77" s="20" t="s">
@@ -5871,7 +5871,7 @@
         <v>55</v>
       </c>
       <c r="H78" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Human fault generates a cyber caused manipulation of server; which might lead to a quantity issue</v>
       </c>
       <c r="I78" s="20" t="s">
@@ -5908,7 +5908,7 @@
         <v>48</v>
       </c>
       <c r="H79" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Human fault generates a cyber caused manipulation of server; which might lead to a quality issue</v>
       </c>
       <c r="I79" s="20" t="s">
@@ -5945,7 +5945,7 @@
         <v>55</v>
       </c>
       <c r="H80" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Human fault generates a cyber-physical caused manipulation of server; which might lead to a quantity issue</v>
       </c>
       <c r="I80" s="21" t="s">
@@ -5982,7 +5982,7 @@
         <v>48</v>
       </c>
       <c r="H81" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Human fault generates a cyber-physical caused manipulation of server; which might lead to a quality issue</v>
       </c>
       <c r="I81" s="21" t="s">
@@ -6485,19 +6485,19 @@
     <row r="27" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="129" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -6520,7 +6520,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="112"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="36">
         <v>1</v>
       </c>
@@ -6873,9 +6873,9 @@
   </sheetPr>
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L50" activeCellId="1" sqref="L49 L50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7316,10 +7316,10 @@
         <v>329</v>
       </c>
       <c r="K9" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M9" s="104" t="s">
         <v>393</v>
@@ -7364,10 +7364,10 @@
         <v>329</v>
       </c>
       <c r="K10" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M10" s="104" t="s">
         <v>393</v>
@@ -7412,10 +7412,10 @@
         <v>329</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M11" s="106" t="s">
         <v>373</v>
@@ -7460,10 +7460,10 @@
         <v>310</v>
       </c>
       <c r="K12" s="108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M12" s="81" t="s">
         <v>373</v>
@@ -7510,10 +7510,10 @@
         <v>310</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L13" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M13" s="82" t="s">
         <v>373</v>
@@ -7560,10 +7560,10 @@
         <v>310</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L14" s="98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M14" s="81" t="s">
         <v>373</v>
@@ -7610,16 +7610,16 @@
         <v>310</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L15" s="99" t="s">
-        <v>428</v>
-      </c>
-      <c r="M15" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="M15" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="N15" s="85" t="s">
         <v>395</v>
-      </c>
-      <c r="N15" s="85" t="s">
-        <v>396</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="46"/>
@@ -7660,16 +7660,16 @@
         <v>310</v>
       </c>
       <c r="K16" s="108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L16" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M16" s="81" t="s">
         <v>377</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O16" s="50"/>
       <c r="P16" s="46"/>
@@ -7765,7 +7765,7 @@
         <v>378</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O18" s="50"/>
       <c r="P18" s="46"/>
@@ -7810,10 +7810,10 @@
         <v>318</v>
       </c>
       <c r="M19" s="86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N19" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O19" s="50"/>
       <c r="P19" s="46"/>
@@ -7854,16 +7854,16 @@
         <v>310</v>
       </c>
       <c r="K20" s="108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L20" s="102" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M20" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="N20" s="85" t="s">
         <v>400</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>401</v>
       </c>
       <c r="O20" s="50"/>
       <c r="P20" s="46"/>
@@ -7908,10 +7908,10 @@
         <v>314</v>
       </c>
       <c r="M21" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="N21" s="85" t="s">
         <v>403</v>
-      </c>
-      <c r="N21" s="85" t="s">
-        <v>404</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="46"/>
@@ -7919,7 +7919,7 @@
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:21" s="120" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="115" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="94">
         <v>22</v>
       </c>
@@ -7938,10 +7938,10 @@
       <c r="F22" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="116" t="s">
+      <c r="H22" s="111" t="s">
         <v>221</v>
       </c>
       <c r="I22" s="107" t="str">
@@ -7951,19 +7951,19 @@
       <c r="J22" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="K22" s="117" t="s">
-        <v>442</v>
+      <c r="K22" s="112" t="s">
+        <v>441</v>
       </c>
       <c r="L22" s="100" t="s">
         <v>314</v>
       </c>
       <c r="M22" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="N22" s="113" t="s">
         <v>403</v>
       </c>
-      <c r="N22" s="118" t="s">
-        <v>404</v>
-      </c>
-      <c r="O22" s="119"/>
+      <c r="O22" s="114"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
@@ -8006,10 +8006,10 @@
         <v>319</v>
       </c>
       <c r="M23" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="N23" s="85" t="s">
         <v>405</v>
-      </c>
-      <c r="N23" s="85" t="s">
-        <v>406</v>
       </c>
       <c r="O23" s="50"/>
       <c r="P23" s="46"/>
@@ -8017,7 +8017,7 @@
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="1:21" s="125" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="120" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="93">
         <v>24</v>
       </c>
@@ -8036,10 +8036,10 @@
       <c r="F24" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="116" t="s">
         <v>221</v>
       </c>
       <c r="I24" s="108" t="str">
@@ -8050,22 +8050,22 @@
         <v>310</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L24" s="101" t="s">
         <v>319</v>
       </c>
       <c r="M24" s="104" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="117" t="s">
         <v>405</v>
       </c>
-      <c r="N24" s="122" t="s">
-        <v>406</v>
-      </c>
-      <c r="O24" s="123"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
     </row>
     <row r="25" spans="1:21" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
@@ -8104,13 +8104,13 @@
         <v>364</v>
       </c>
       <c r="M25" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="N25" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="120" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:21" s="115" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
         <v>26</v>
       </c>
@@ -8129,10 +8129,10 @@
       <c r="F26" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G26" s="116" t="s">
+      <c r="G26" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="111" t="s">
         <v>221</v>
       </c>
       <c r="I26" s="107" t="str">
@@ -8143,22 +8143,22 @@
         <v>310</v>
       </c>
       <c r="K26" s="107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L26" s="107" t="s">
         <v>364</v>
       </c>
       <c r="M26" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="N26" s="121" t="s">
         <v>407</v>
       </c>
-      <c r="N26" s="126" t="s">
-        <v>408</v>
-      </c>
-      <c r="O26" s="127"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
@@ -8329,10 +8329,10 @@
         <v>302</v>
       </c>
       <c r="K30" s="107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L30" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M30" s="82" t="s">
         <v>391</v>
@@ -8380,10 +8380,10 @@
         <v>302</v>
       </c>
       <c r="K31" s="107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M31" s="82" t="s">
         <v>391</v>
@@ -8433,7 +8433,7 @@
         <v>322</v>
       </c>
       <c r="M32" s="83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -8480,7 +8480,7 @@
         <v>322</v>
       </c>
       <c r="M33" s="86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -8490,7 +8490,7 @@
       <c r="S33" s="46"/>
     </row>
     <row r="34" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="115">
+      <c r="A34" s="110">
         <v>34</v>
       </c>
       <c r="B34" s="59" t="s">
@@ -8523,10 +8523,10 @@
         <v>321</v>
       </c>
       <c r="K34" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="L34" s="109" t="s">
         <v>440</v>
-      </c>
-      <c r="L34" s="114" t="s">
-        <v>441</v>
       </c>
       <c r="M34" s="83" t="s">
         <v>375</v>
@@ -8539,7 +8539,7 @@
       <c r="S34" s="46"/>
     </row>
     <row r="35" spans="1:21" s="3" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115">
+      <c r="A35" s="110">
         <v>35</v>
       </c>
       <c r="B35" s="59" t="s">
@@ -8572,10 +8572,10 @@
         <v>321</v>
       </c>
       <c r="K35" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="L35" s="109" t="s">
         <v>440</v>
-      </c>
-      <c r="L35" s="114" t="s">
-        <v>441</v>
       </c>
       <c r="M35" s="83" t="s">
         <v>375</v>
@@ -8588,7 +8588,7 @@
       <c r="S35" s="47"/>
     </row>
     <row r="36" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="115">
+      <c r="A36" s="110">
         <v>36</v>
       </c>
       <c r="B36" s="55" t="s">
@@ -8621,13 +8621,13 @@
         <v>321</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L36" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="L36" s="109" t="s">
         <v>325</v>
       </c>
       <c r="M36" s="80" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -8637,7 +8637,7 @@
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37" s="115">
+      <c r="A37" s="110">
         <v>37</v>
       </c>
       <c r="B37" s="55" t="s">
@@ -8670,13 +8670,13 @@
         <v>321</v>
       </c>
       <c r="K37" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L37" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="L37" s="109" t="s">
         <v>325</v>
       </c>
       <c r="M37" s="86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
@@ -8722,7 +8722,7 @@
         <v>331</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
@@ -8768,7 +8768,7 @@
         <v>331</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -8778,7 +8778,7 @@
       <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:21" s="47" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="115">
+      <c r="A40" s="110">
         <v>40</v>
       </c>
       <c r="B40" s="55" t="s">
@@ -8810,13 +8810,13 @@
         <v>329</v>
       </c>
       <c r="K40" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L40" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="L40" s="109" t="s">
         <v>331</v>
       </c>
       <c r="M40" s="86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
@@ -8826,7 +8826,7 @@
       <c r="S40" s="46"/>
     </row>
     <row r="41" spans="1:21" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="115">
+      <c r="A41" s="110">
         <v>41</v>
       </c>
       <c r="B41" s="55" t="s">
@@ -8858,13 +8858,13 @@
         <v>329</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L41" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="L41" s="109" t="s">
         <v>331</v>
       </c>
       <c r="M41" s="86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
@@ -8909,10 +8909,10 @@
       </c>
       <c r="K42" s="60"/>
       <c r="L42" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="M42" s="83" t="s">
         <v>416</v>
-      </c>
-      <c r="M42" s="83" t="s">
-        <v>417</v>
       </c>
       <c r="N42" s="51"/>
       <c r="O42" s="51"/>
@@ -8955,10 +8955,10 @@
       </c>
       <c r="K43" s="60"/>
       <c r="L43" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="M43" s="83" t="s">
         <v>416</v>
-      </c>
-      <c r="M43" s="83" t="s">
-        <v>417</v>
       </c>
       <c r="N43" s="51"/>
       <c r="O43" s="51"/>
@@ -8968,7 +8968,7 @@
       <c r="S43" s="11"/>
     </row>
     <row r="44" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="115">
+      <c r="A44" s="110">
         <v>44</v>
       </c>
       <c r="B44" s="55" t="s">
@@ -9000,13 +9000,13 @@
         <v>321</v>
       </c>
       <c r="K44" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L44" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="L44" s="109" t="s">
         <v>328</v>
       </c>
       <c r="M44" s="86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
@@ -9048,10 +9048,10 @@
         <v>302</v>
       </c>
       <c r="K45" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L45" s="72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M45" s="81" t="s">
         <v>379</v>
@@ -9142,10 +9142,10 @@
         <v>302</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L47" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M47" s="80" t="s">
         <v>392</v>
@@ -9192,10 +9192,10 @@
         <v>302</v>
       </c>
       <c r="K48" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M48" s="80" t="s">
         <v>392</v>
@@ -9240,7 +9240,7 @@
         <v>297</v>
       </c>
       <c r="K49" s="107" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L49" s="96"/>
       <c r="M49" s="83" t="s">
@@ -9286,9 +9286,9 @@
         <v>297</v>
       </c>
       <c r="K50" s="107" t="s">
-        <v>445</v>
-      </c>
-      <c r="L50" s="131"/>
+        <v>444</v>
+      </c>
+      <c r="L50" s="126"/>
       <c r="M50" s="82" t="s">
         <v>380</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>334</v>
       </c>
       <c r="M51" s="87" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N51" s="50"/>
       <c r="O51" s="50"/>
@@ -9382,7 +9382,7 @@
         <v>359</v>
       </c>
       <c r="M52" s="80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
@@ -9425,10 +9425,10 @@
       </c>
       <c r="K53" s="60"/>
       <c r="L53" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" s="83" t="s">
         <v>422</v>
-      </c>
-      <c r="M53" s="83" t="s">
-        <v>423</v>
       </c>
       <c r="N53" s="47"/>
       <c r="O53" s="47"/>
@@ -9470,7 +9470,7 @@
         <v>329</v>
       </c>
       <c r="K54" s="107" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L54" s="97"/>
       <c r="M54" s="82" t="s">
@@ -9516,7 +9516,7 @@
         <v>329</v>
       </c>
       <c r="K55" s="56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L55" s="97"/>
       <c r="M55" s="82" t="s">
@@ -9562,7 +9562,7 @@
         <v>329</v>
       </c>
       <c r="K56" s="56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L56" s="96"/>
       <c r="M56" s="82" t="s">
@@ -9611,7 +9611,7 @@
         <v>338</v>
       </c>
       <c r="L57" s="108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M57" s="83" t="s">
         <v>374</v>
@@ -9659,7 +9659,7 @@
         <v>338</v>
       </c>
       <c r="L58" s="108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M58" s="83" t="s">
         <v>374</v>
@@ -9707,7 +9707,7 @@
         <v>338</v>
       </c>
       <c r="L59" s="108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M59" s="81" t="s">
         <v>374</v>
@@ -9720,7 +9720,7 @@
       <c r="S59" s="47"/>
     </row>
     <row r="60" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A60" s="115">
+      <c r="A60" s="110">
         <v>60</v>
       </c>
       <c r="B60" s="55" t="s">
@@ -9752,9 +9752,9 @@
         <v>329</v>
       </c>
       <c r="K60" s="107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L60" s="128" t="s">
+        <v>446</v>
+      </c>
+      <c r="L60" s="123" t="s">
         <v>340</v>
       </c>
       <c r="M60" s="82" t="s">
@@ -9768,7 +9768,7 @@
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A61" s="115">
+      <c r="A61" s="110">
         <v>61</v>
       </c>
       <c r="B61" s="55" t="s">
@@ -9800,9 +9800,9 @@
         <v>329</v>
       </c>
       <c r="K61" s="107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L61" s="128" t="s">
+        <v>446</v>
+      </c>
+      <c r="L61" s="123" t="s">
         <v>340</v>
       </c>
       <c r="M61" s="82" t="s">
@@ -9816,7 +9816,7 @@
       <c r="S61" s="15"/>
     </row>
     <row r="62" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A62" s="115">
+      <c r="A62" s="110">
         <v>62</v>
       </c>
       <c r="B62" s="59" t="s">
@@ -9848,9 +9848,9 @@
         <v>329</v>
       </c>
       <c r="K62" s="107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L62" s="114" t="s">
+        <v>446</v>
+      </c>
+      <c r="L62" s="109" t="s">
         <v>339</v>
       </c>
       <c r="M62" s="77">
@@ -9864,7 +9864,7 @@
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="115">
+      <c r="A63" s="110">
         <v>63</v>
       </c>
       <c r="B63" s="59" t="s">
@@ -9896,9 +9896,9 @@
         <v>329</v>
       </c>
       <c r="K63" s="107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L63" s="114" t="s">
+        <v>446</v>
+      </c>
+      <c r="L63" s="109" t="s">
         <v>339</v>
       </c>
       <c r="M63" s="77">
@@ -9944,9 +9944,9 @@
         <v>329</v>
       </c>
       <c r="K64" s="107" t="s">
-        <v>445</v>
-      </c>
-      <c r="L64" s="130"/>
+        <v>444</v>
+      </c>
+      <c r="L64" s="125"/>
       <c r="M64" s="79" t="s">
         <v>374</v>
       </c>
@@ -9990,9 +9990,9 @@
         <v>329</v>
       </c>
       <c r="K65" s="107" t="s">
-        <v>445</v>
-      </c>
-      <c r="L65" s="130"/>
+        <v>444</v>
+      </c>
+      <c r="L65" s="125"/>
       <c r="M65" s="76" t="s">
         <v>374</v>
       </c>
@@ -10029,16 +10029,16 @@
         <v>216</v>
       </c>
       <c r="I66" s="60" t="str">
-        <f t="shared" ref="I66:I68" si="1">CONCATENATE(B66," generates a ",C66," threat causing a ",D66," of the ",E66," of the ",F66," which affects ",G66," and might lead to a ",H66," issue")</f>
+        <f>CONCATENATE(B66," generates a ",C66," threat causing a ",D66," of the ",E66," of the ",F66," which affects ",G66," and might lead to a ",H66," issue")</f>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Temperature sensor Web-Platform which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J66" s="61" t="s">
         <v>307</v>
       </c>
       <c r="K66" s="108" t="s">
-        <v>449</v>
-      </c>
-      <c r="L66" s="130"/>
+        <v>448</v>
+      </c>
+      <c r="L66" s="125"/>
       <c r="M66" s="78" t="s">
         <v>375</v>
       </c>
@@ -10050,7 +10050,7 @@
       <c r="S66" s="15"/>
     </row>
     <row r="67" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A67" s="115">
+      <c r="A67" s="110">
         <v>67</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -10075,17 +10075,17 @@
         <v>368</v>
       </c>
       <c r="I67" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(B67," generates a ",C67," threat causing a ",D67," of the ",E67," of the ",F67," which affects ",G67," and might lead to a ",H67," issue")</f>
         <v>Internal attacker generates a cyber threat causing a Eavesdropping of the Server of the Well-Diary which affects Operator and might lead to a Information Leak issue</v>
       </c>
       <c r="J67" s="56" t="s">
         <v>329</v>
       </c>
       <c r="K67" s="107" t="s">
-        <v>451</v>
-      </c>
-      <c r="L67" s="129" t="s">
         <v>450</v>
+      </c>
+      <c r="L67" s="124" t="s">
+        <v>449</v>
       </c>
       <c r="M67" s="84" t="s">
         <v>382</v>
@@ -10123,7 +10123,7 @@
         <v>342</v>
       </c>
       <c r="I68" s="89" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(B68," generates a ",C68," threat causing a ",D68," of the ",E68," of the ",F68," which affects ",G68," and might lead to a ",H68," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J68" s="89" t="s">
@@ -10169,7 +10169,7 @@
         <v>368</v>
       </c>
       <c r="I69" s="89" t="str">
-        <f t="shared" ref="I69:I106" si="2">CONCATENATE(B69," generates a ",C69," threat causing a ",D69," of the ",E69," of the ",F69," which affects ",G69," and might lead to a ",H69," issue")</f>
+        <f t="shared" ref="I69:I106" si="1">CONCATENATE(B69," generates a ",C69," threat causing a ",D69," of the ",E69," of the ",F69," which affects ",G69," and might lead to a ",H69," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information Leak issue</v>
       </c>
       <c r="J69" s="89" t="s">
@@ -10215,7 +10215,7 @@
         <v>351</v>
       </c>
       <c r="I70" s="89" t="str">
-        <f t="shared" ref="I70" si="3">CONCATENATE(B70," generates a ",C70," threat causing a ",D70," of the ",E70," of the ",F70," which affects ",G70," and might lead to a ",H70," issue")</f>
+        <f>CONCATENATE(B70," generates a ",C70," threat causing a ",D70," of the ",E70," of the ",F70," which affects ",G70," and might lead to a ",H70," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J70" s="89" t="s">
@@ -10261,7 +10261,7 @@
         <v>342</v>
       </c>
       <c r="I71" s="89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J71" s="89" t="s">
@@ -10307,7 +10307,7 @@
         <v>221</v>
       </c>
       <c r="I72" s="91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J72" s="91" t="s">
@@ -10353,7 +10353,7 @@
         <v>230</v>
       </c>
       <c r="I73" s="91" t="str">
-        <f t="shared" ref="I73:I74" si="4">CONCATENATE(B73," generates a ",C73," threat causing a ",D73," of the ",E73," of the ",F73," which affects ",G73," and might lead to a ",H73," issue")</f>
+        <f>CONCATENATE(B73," generates a ",C73," threat causing a ",D73," of the ",E73," of the ",F73," which affects ",G73," and might lead to a ",H73," issue")</f>
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Reputation issue</v>
       </c>
       <c r="J73" s="91" t="s">
@@ -10399,7 +10399,7 @@
         <v>230</v>
       </c>
       <c r="I74" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(B74," generates a ",C74," threat causing a ",D74," of the ",E74," of the ",F74," which affects ",G74," and might lead to a ",H74," issue")</f>
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J74" s="60" t="s">
@@ -10407,10 +10407,10 @@
       </c>
       <c r="K74" s="60"/>
       <c r="L74" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="M74" s="87" t="s">
         <v>420</v>
-      </c>
-      <c r="M74" s="87" t="s">
-        <v>421</v>
       </c>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
@@ -10424,7 +10424,7 @@
         <v>48</v>
       </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J75" s="11"/>
@@ -10443,7 +10443,7 @@
         <v>49</v>
       </c>
       <c r="I76" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J76" s="11"/>
@@ -10462,7 +10462,7 @@
         <v>50</v>
       </c>
       <c r="I77" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J77" s="11"/>
@@ -10481,7 +10481,7 @@
         <v>51</v>
       </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J78" s="11"/>
@@ -10500,7 +10500,7 @@
         <v>52</v>
       </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J79" s="11"/>
@@ -10519,7 +10519,7 @@
         <v>53</v>
       </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J80" s="11"/>
@@ -10538,7 +10538,7 @@
         <v>54</v>
       </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J81" s="11"/>
@@ -10557,7 +10557,7 @@
         <v>55</v>
       </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J82" s="11"/>
@@ -10576,7 +10576,7 @@
         <v>56</v>
       </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J83" s="11"/>
@@ -10595,7 +10595,7 @@
         <v>57</v>
       </c>
       <c r="I84" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J84" s="11"/>
@@ -10614,7 +10614,7 @@
         <v>58</v>
       </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J85" s="11"/>
@@ -10633,7 +10633,7 @@
         <v>59</v>
       </c>
       <c r="I86" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J86" s="11"/>
@@ -10652,7 +10652,7 @@
         <v>60</v>
       </c>
       <c r="I87" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J87" s="11"/>
@@ -10671,7 +10671,7 @@
         <v>61</v>
       </c>
       <c r="I88" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J88" s="11"/>
@@ -10690,7 +10690,7 @@
         <v>62</v>
       </c>
       <c r="I89" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J89" s="11"/>
@@ -10709,7 +10709,7 @@
         <v>63</v>
       </c>
       <c r="I90" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J90" s="11"/>
@@ -10728,7 +10728,7 @@
         <v>64</v>
       </c>
       <c r="I91" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J91" s="11"/>
@@ -10747,7 +10747,7 @@
         <v>65</v>
       </c>
       <c r="I92" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J92" s="11"/>
@@ -10766,7 +10766,7 @@
         <v>66</v>
       </c>
       <c r="I93" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J93" s="11"/>
@@ -10785,7 +10785,7 @@
         <v>67</v>
       </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J94" s="11"/>
@@ -10804,7 +10804,7 @@
         <v>68</v>
       </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J95" s="11"/>
@@ -10823,7 +10823,7 @@
         <v>69</v>
       </c>
       <c r="I96" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J96" s="11"/>
@@ -10850,7 +10850,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J97" s="11"/>
@@ -10868,7 +10868,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J98" s="11"/>
@@ -10886,7 +10886,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J99" s="11"/>
@@ -10904,7 +10904,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J100" s="11"/>
@@ -10922,7 +10922,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J101" s="11"/>
@@ -10939,7 +10939,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J102" s="11"/>
@@ -10955,7 +10955,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J103" s="11"/>
@@ -10971,7 +10971,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J104" s="11"/>
@@ -10987,7 +10987,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J105" s="11"/>
@@ -11004,7 +11004,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
       </c>
       <c r="J106" s="11"/>
@@ -11050,15 +11050,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="131" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -11613,67 +11613,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12234,28 +12179,73 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12281,9 +12271,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C20816-7F10-CB46-AD98-911B773DDD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBE180-A590-6F4A-AD43-890634674985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="DWC - Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$U$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$U$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'STOP-IT Database'!$A$1:$R$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,26 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={751C49CA-90E2-114C-BD29-73671739C234}</author>
-  </authors>
-  <commentList>
-    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{751C49CA-90E2-114C-BD29-73671739C234}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Are the two examples swapped? </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="419">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -1041,27 +1023,6 @@
     <t>manipulation of the data</t>
   </si>
   <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>mobile sensor (temperature, conductivity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWB </t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Human failure</t>
-  </si>
-  <si>
-    <t>missing data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSO </t>
-  </si>
-  <si>
     <t>SIAAP</t>
   </si>
   <si>
@@ -1165,15 +1126,6 @@
     <t>Eavesdropping</t>
   </si>
   <si>
-    <t>Well-Diary</t>
-  </si>
-  <si>
-    <t>Sewer system</t>
-  </si>
-  <si>
-    <t>Making the asumptions that the sensors are either physically accessible by an external attacker, or that they communicate wirelessly</t>
-  </si>
-  <si>
     <t>An attacker manages to spoof an online sensor and upload misleading data to the web platform</t>
   </si>
   <si>
@@ -1226,9 +1178,6 @@
   </si>
   <si>
     <t>An attacker who knows where are the different sensors put small jammers close to them, preventing them to connect.</t>
-  </si>
-  <si>
-    <t>Web Platorm (Berlin)</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature sensor Web-Platform </t>
@@ -1275,6 +1224,171 @@
   </si>
   <si>
     <t>Measures</t>
+  </si>
+  <si>
+    <t>46, 48, 54, 67</t>
+  </si>
+  <si>
+    <t>46, 48, 54, 67, 68</t>
+  </si>
+  <si>
+    <t>46, 50,58,60,63</t>
+  </si>
+  <si>
+    <t>3,11,30</t>
+  </si>
+  <si>
+    <t>44, 46, 50</t>
+  </si>
+  <si>
+    <t>27, 28, 46, 48, 54, 67</t>
+  </si>
+  <si>
+    <t>11, 26, 27, 28, 29, 30</t>
+  </si>
+  <si>
+    <t>30, 69, 71</t>
+  </si>
+  <si>
+    <t>The access control is compromised by error (someone gives access to someone else by error for instance)</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29, 68, 44, 46</t>
+  </si>
+  <si>
+    <t>API credentials are issued to the wrong "person" giving access to data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26, 27, 28, 29, 46, 68 </t>
+  </si>
+  <si>
+    <t>46, 48, 54, 67, 68, 72</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29, 30, 48,54,58,67,68</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29, 48, 54, 58, 67, 68</t>
+  </si>
+  <si>
+    <t>44, 45, 46, 48, 54, 68, 70</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29, 46, 48, 54, 67, 68</t>
+  </si>
+  <si>
+    <t>3,7,11,28,30</t>
+  </si>
+  <si>
+    <t>3,7,11,30</t>
+  </si>
+  <si>
+    <t>26,28,46, 48, 54,58,67,68</t>
+  </si>
+  <si>
+    <t>46, 48, 54,58,67,68</t>
+  </si>
+  <si>
+    <t>27,44, 45, 46, 50</t>
+  </si>
+  <si>
+    <t>1, 3, 27, 30, 46, 48, 54, 67</t>
+  </si>
+  <si>
+    <t>27,46, 48, 50, 54,58,67,68</t>
+  </si>
+  <si>
+    <t>27, 30, 46, 48, 54, 58, 59, 67, 72</t>
+  </si>
+  <si>
+    <t>27, 30, 46, 48, 54, 58, 59, 67,  72</t>
+  </si>
+  <si>
+    <t>1, 3, 30, 58, 59, 69, 71</t>
+  </si>
+  <si>
+    <t>30, 58, 66</t>
+  </si>
+  <si>
+    <t>An user has acces to the server and enters wrong or incorrect values which triggers an alert, tricking the ML Algorithm into issuing a warning; leading to quality and quantity issues of the reuse water.</t>
+  </si>
+  <si>
+    <t>27, 44, 45, 46, 48, 54, 67, 68</t>
+  </si>
+  <si>
+    <t>49, 57, 60, 63, 64, 70</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 44, 46, 48, 54, 67, 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker DDOS the server </t>
+  </si>
+  <si>
+    <t>30, 66</t>
+  </si>
+  <si>
+    <t>An angry employee edits the code of the game, preventing it from working once deployed.</t>
+  </si>
+  <si>
+    <t>57, 60, 73</t>
+  </si>
+  <si>
+    <t>An extranal supplier has lost a tender and one of the external employees places a script/program on a server that causes the Decision support system to be unavailable.</t>
+  </si>
+  <si>
+    <t>An employee at a extranal supplier is fired, but before the employee access to the it systems he manages is closed the employee changes the access to the server by adding a new user with administrative server rights.</t>
+  </si>
+  <si>
+    <t>System changes in the internal network setup causes several  servers and therefore the decission support system to be offline and unavailable.</t>
+  </si>
+  <si>
+    <t>An internal attacker has the opertunity to place a hardware device on the internal network causing a DDoS attack on several internal servers  witch affects the availability of the Decission support system.</t>
+  </si>
+  <si>
+    <t>An internal attacker with server access manipulates the data feed from the Decision support system to the Web application causing the Web application to show wrong / fake data to end users</t>
+  </si>
+  <si>
+    <t>An external attacker breaks into one of the buildings where several sensors is placed, during the burglary the external attacker breaks one or several sensors. The control software is made with fall-back in case of sensor failure.  Sensor failure or no data or data flatline will trigger en alarm to a operator</t>
+  </si>
+  <si>
+    <t>An attacker hacks into the platform controlling the ALERT system and gets access to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker hacks into the platform controlling the ALERT system and changes the data </t>
+  </si>
+  <si>
+    <t>An attacker hacks into the platform controlling the ALERT system and prevent it from sampling.</t>
+  </si>
+  <si>
+    <t>An attacker gets access to the Early Warning System and sent wrong quality data to the users preventing them from making a right decision on the opening or closing of a bathing site. Thus, making them doubt the EWS</t>
+  </si>
+  <si>
+    <t>If the users decides to open a bathing site based on wrong information, it will lead to people bathing in water that does not have a good quality, causing health issues</t>
+  </si>
+  <si>
+    <t>The data used to calibrate the EWS for a specific bathing site is incorrect, leading to false prevention of the water quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker access the mobile app and changes the status of a bathing site from "closed" to "open" leading people to swim in a bad quality water </t>
+  </si>
+  <si>
+    <t>An attacker access the mobile app and changes the status of a bathing site from "closed" to "open" leading people to swim in a bad quality water. People will then not trust the information coming from the app</t>
+  </si>
+  <si>
+    <t>An attacker might want to manipulate the data by attacking the MQTT server (by default, MQTT does not provide any security mechanism).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker access the sensors, and manipualte the data to trick the system into thinking that there has been an illicit connection (or to hide one), thus leading to the dispatch of a team (or not). </t>
+  </si>
+  <si>
+    <t>26,27,28,30, 33, 43, 46, 47, 50, 58, 60</t>
+  </si>
+  <si>
+    <t>An employe in charge of gathering data from an offline sensor manipulates the data before uploading them to the server.</t>
+  </si>
+  <si>
+    <t>An attacker exploits a vulnerability on the server and manipulates the data of the sensors.</t>
   </si>
   <si>
     <r>
@@ -1283,7 +1397,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>58</t>
@@ -1291,29 +1404,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>, 66</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 66</t>
-    </r>
-  </si>
-  <si>
-    <t>46, 48, 54, 67</t>
-  </si>
-  <si>
-    <t>46, 48, 54, 67, 68</t>
   </si>
   <si>
     <r>
@@ -1322,7 +1418,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>58</t>
@@ -1330,329 +1425,23 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>, 66, 69</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 66, 69</t>
-    </r>
-  </si>
-  <si>
-    <t>46, 50,58,60,63</t>
-  </si>
-  <si>
-    <t>3,11,30</t>
-  </si>
-  <si>
-    <t>44, 46, 50</t>
-  </si>
-  <si>
-    <t>27, 30, 49</t>
-  </si>
-  <si>
-    <t>27, 28, 46, 48, 54, 67</t>
-  </si>
-  <si>
-    <t>46, 48, 68</t>
-  </si>
-  <si>
-    <t>11, 26, 27, 28, 29, 30</t>
-  </si>
-  <si>
-    <t>30, 69, 71</t>
-  </si>
-  <si>
-    <t>The access control is compromised by error (someone gives access to someone else by error for instance)</t>
-  </si>
-  <si>
-    <t>26, 27, 28, 29, 68, 44, 46</t>
-  </si>
-  <si>
-    <t>API credentials are issued to the wrong "person" giving access to data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26, 27, 28, 29, 46, 68 </t>
-  </si>
-  <si>
-    <t>46, 48, 54, 67, 68, 72</t>
-  </si>
-  <si>
-    <t>26, 27, 28, 29, 30, 48,54,58,67,68</t>
-  </si>
-  <si>
-    <t>26, 27, 28, 29, 48, 54, 58, 67, 68</t>
-  </si>
-  <si>
-    <t>44, 45, 46, 48, 54, 68, 70</t>
-  </si>
-  <si>
-    <t>26, 27, 28, 29, 46, 48, 54, 67, 68</t>
-  </si>
-  <si>
-    <t>30: RedundantAssetsAndInfrastructures
-58: NetworkTrafficAnalysis
-66: DDoS Protection</t>
-  </si>
-  <si>
-    <t>26: ProcedureForPersonnelChanges
-27: EmployeesTrainings
-28: SecurityCheckOfEmployees
-46: RestrictedAccesToITSystem
-50: NetworkSeparation
-58: NetworkTrafficAnalysis
-60: Software Management</t>
-  </si>
-  <si>
-    <t>46: RestrictedAccesToITSystem
-50: NetworkSeparation
-58: NetworkTrafficAnalysis
-60: Software Management
-63: SecureOutsourcing</t>
-  </si>
-  <si>
-    <t>3: CameraSurveillance
-11: DiscreetAppearance
-30: RedundantAssetsAndInfrastructures</t>
-  </si>
-  <si>
-    <t>3,7,11,28,30</t>
-  </si>
-  <si>
-    <t>3,7,11,30</t>
-  </si>
-  <si>
-    <t>3: CameraSurveillance
-7: BinaryContacts
-11: DiscreetAppearance
-30: RedundantAssetsAndInfrastructures
-51: AppropriateLayingOfWires</t>
-  </si>
-  <si>
-    <t>3: CameraSurveillance
-7: BinaryContacts
-11: DiscreetAppearance
-26: ProcedureForPersonnelChanges
-28: SecurityCheckOfEmployees
-30: RedundantAssetsAndInfrastructures
-51: AppropriateLayingOfWires</t>
-  </si>
-  <si>
-    <t>26,28,46, 48, 54,58,67,68</t>
-  </si>
-  <si>
-    <t>26: ProcedureForPersonnelChanges
-28: SecurityCheckOfEmployees
-46: RestrictedAccesToITSystem
-48: CryptographicProcesses
-54: DataIntegrityCheck
-58: NetworkTrafficAnalysis
-67: Authenticity check
-68: Access control</t>
-  </si>
-  <si>
-    <t>46, 48, 54,58,67,68</t>
-  </si>
-  <si>
-    <t>46: RestrictedAccesToITSystem
-48: CryptographicProcesses
-54: DataIntegrityCheck
-58: NetworkTrafficAnalysis
-67: Authenticity check
-68: Access control</t>
-  </si>
-  <si>
-    <t>27,44, 45, 46, 50</t>
-  </si>
-  <si>
-    <t>27: EmployeesTrainings
-44: Password security
-45: TwoFactorAuthentification
-46: RestrictedAccesToITSystem
-50: NetworkSeparation</t>
-  </si>
-  <si>
-    <t>1, 3, 27, 30, 46, 48, 54, 67</t>
-  </si>
-  <si>
-    <t>27,46, 48, 50, 54,58,67,68</t>
-  </si>
-  <si>
-    <t>27, 30, 46, 48, 54, 58, 59, 67, 72</t>
-  </si>
-  <si>
-    <r>
-      <t>30, 58</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 66</t>
-    </r>
-  </si>
-  <si>
-    <t>27, 30, 46, 48, 54, 58, 59, 67,  72</t>
-  </si>
-  <si>
-    <t>1, 3, 30, 58, 59, 69, 71</t>
-  </si>
-  <si>
-    <t>30, 58, 66</t>
-  </si>
-  <si>
-    <t>An user has acces to the server and enters wrong or incorrect values which triggers an alert, tricking the ML Algorithm into issuing a warning; leading to quality and quantity issues of the reuse water.</t>
-  </si>
-  <si>
-    <t>27, 44, 45, 46, 48, 54, 67, 68</t>
-  </si>
-  <si>
-    <t>49, 57, 60, 63, 64, 70</t>
-  </si>
-  <si>
-    <t>26, 27, 28, 44, 46, 48, 54, 67, 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An attacker DDOS the server </t>
-  </si>
-  <si>
-    <t>30, 66</t>
-  </si>
-  <si>
-    <t>An angry employee edits the code of the game, preventing it from working once deployed.</t>
-  </si>
-  <si>
-    <t>57, 60, 73</t>
-  </si>
-  <si>
-    <t>An extranal supplier has lost a tender and one of the external employees places a script/program on a server that causes the Decision support system to be unavailable.</t>
-  </si>
-  <si>
-    <t>An employee at a extranal supplier is fired, but before the employee access to the it systems he manages is closed the employee changes the access to the server by adding a new user with administrative server rights.</t>
-  </si>
-  <si>
-    <t>System changes in the internal network setup causes several  servers and therefore the decission support system to be offline and unavailable.</t>
-  </si>
-  <si>
-    <t>An internal attacker has the opertunity to place a hardware device on the internal network causing a DDoS attack on several internal servers  witch affects the availability of the Decission support system.</t>
-  </si>
-  <si>
-    <t>An internal attacker with server access manipulates the data feed from the Decision support system to the Web application causing the Web application to show wrong / fake data to end users</t>
-  </si>
-  <si>
-    <t>An external attacker breaks into one of the buildings where several sensors is placed, during the burglary the external attacker breaks one or several sensors. The control software is made with fall-back in case of sensor failure.  Sensor failure or no data or data flatline will trigger en alarm to a operator</t>
-  </si>
-  <si>
-    <t>An attacker hacks into the platform controlling the ALERT system and gets access to the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An attacker hacks into the platform controlling the ALERT system and changes the data </t>
-  </si>
-  <si>
-    <t>An attacker hacks into the platform controlling the ALERT system and prevent it from sampling.</t>
-  </si>
-  <si>
-    <t>An attacker gets access to the Early Warning System and sent wrong quality data to the users preventing them from making a right decision on the opening or closing of a bathing site. Thus, making them doubt the EWS</t>
-  </si>
-  <si>
-    <t>If the users decides to open a bathing site based on wrong information, it will lead to people bathing in water that does not have a good quality, causing health issues</t>
-  </si>
-  <si>
-    <t>The data used to calibrate the EWS for a specific bathing site is incorrect, leading to false prevention of the water quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An attacker access the mobile app and changes the status of a bathing site from "closed" to "open" leading people to swim in a bad quality water </t>
-  </si>
-  <si>
-    <t>An attacker access the mobile app and changes the status of a bathing site from "closed" to "open" leading people to swim in a bad quality water. People will then not trust the information coming from the app</t>
-  </si>
-  <si>
-    <t>revised by SIAAP</t>
-  </si>
-  <si>
-    <t>revised by BIOFOS</t>
-  </si>
-  <si>
-    <t>CAP Should check example</t>
-  </si>
-  <si>
-    <t>An attacker might want to manipulate the data by attacking the MQTT server (by default, MQTT does not provide any security mechanism).</t>
-  </si>
-  <si>
-    <t>Not the same as 21, different consequence</t>
-  </si>
-  <si>
-    <t>Not the same as 23, different consequence</t>
-  </si>
-  <si>
-    <t>Not the same as 25, different consequence</t>
-  </si>
-  <si>
-    <t>Missing example - Need more info on the Berlin case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An attacker access the sensors, and manipualte the data to trick the system into thinking that there has been an illicit connection (or to hide one), thus leading to the dispatch of a team (or not). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need check from Sofia </t>
-  </si>
-  <si>
-    <t>Missing example - Need more information on the sensors (from Sofia)</t>
-  </si>
-  <si>
-    <t>Missing example - Need more information on the solution (from Sofia)</t>
-  </si>
-  <si>
-    <t>An attacker exploits missing access controls on the 
-application/API to gain access to personnal information of operators, and to other information such as real time position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need check from Berlin </t>
-  </si>
-  <si>
-    <t>26,27,28,30, 33, 43, 46, 47, 50, 58, 60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1838,11 +1627,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1936,18 +1724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,81 +1842,81 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2158,19 +1934,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,27 +1958,27 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2211,10 +1987,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2223,51 +1999,51 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2276,29 +2052,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2306,29 +2061,11 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2336,10 +2073,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2348,14 +2085,8 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2363,69 +2094,59 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2525,9 +2246,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Guillaume Bour" id="{B9360EEC-D318-1841-A92E-832A0B06B830}" userId="S::guillaume.bour@sintef.no::fc831d1b-d57d-42c4-81e3-62c9f620468d" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2738,14 +2457,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K34" dT="2021-05-31T07:01:14.58" personId="{B9360EEC-D318-1841-A92E-832A0B06B830}" id="{751C49CA-90E2-114C-BD29-73671739C234}">
-    <text xml:space="preserve">Are the two examples swapped? </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
@@ -2764,31 +2475,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -6485,19 +6196,19 @@
     <row r="27" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="99" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -6520,7 +6231,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="130"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="36">
         <v>1</v>
       </c>
@@ -6867,20 +6578,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
@@ -6937,7 +6648,7 @@
         <v>36</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="N1" s="49"/>
       <c r="O1" s="49"/>
@@ -6964,10 +6675,10 @@
         <v>222</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F2" s="62" t="s">
         <v>291</v>
@@ -6983,14 +6694,14 @@
         <v>External Attacker generates a Physical threat causing a Discharge of pollutants of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="M2" s="80" t="s">
-        <v>383</v>
+        <v>298</v>
+      </c>
+      <c r="M2" s="104" t="s">
+        <v>368</v>
       </c>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -7015,7 +6726,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>291</v>
@@ -7027,18 +6738,18 @@
         <v>221</v>
       </c>
       <c r="I3" s="60" t="str">
-        <f t="shared" ref="I3:I65" si="0">CONCATENATE(B3," generates a ",C3," threat causing a ",D3," of the ",E3," of the ",F3," which affects ",G3," and might lead to a ",H3," issue")</f>
+        <f t="shared" ref="I3:I61" si="0">CONCATENATE(B3," generates a ",C3," threat causing a ",D3," of the ",E3," of the ",F3," which affects ",G3," and might lead to a ",H3," issue")</f>
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K3" s="60"/>
       <c r="L3" s="60" t="s">
-        <v>356</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>384</v>
+        <v>346</v>
+      </c>
+      <c r="M3" s="105" t="s">
+        <v>369</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -7063,13 +6774,13 @@
         <v>290</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>291</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>221</v>
@@ -7079,14 +6790,14 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the ALERT SYSTEM which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>384</v>
+        <v>346</v>
+      </c>
+      <c r="M4" s="104" t="s">
+        <v>369</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -7111,13 +6822,13 @@
         <v>292</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F5" s="59" t="s">
         <v>291</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>221</v>
@@ -7127,14 +6838,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>389</v>
+        <v>323</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>374</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -7159,7 +6870,7 @@
         <v>292</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F6" s="55" t="s">
         <v>291</v>
@@ -7175,14 +6886,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="M6" s="82" t="s">
-        <v>389</v>
+        <v>323</v>
+      </c>
+      <c r="M6" s="104" t="s">
+        <v>374</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
@@ -7205,7 +6916,7 @@
         <v>292</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>291</v>
@@ -7214,21 +6925,21 @@
         <v>232</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I7" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>389</v>
+        <v>323</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>374</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -7251,7 +6962,7 @@
         <v>292</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F8" s="55" t="s">
         <v>291</v>
@@ -7260,21 +6971,21 @@
         <v>232</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I8" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>389</v>
+        <v>323</v>
+      </c>
+      <c r="M8" s="104" t="s">
+        <v>374</v>
       </c>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
@@ -7284,7 +6995,7 @@
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+      <c r="A9" s="58">
         <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -7293,10 +7004,10 @@
       <c r="C9" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="90" t="s">
         <v>243</v>
       </c>
       <c r="F9" s="59" t="s">
@@ -7305,24 +7016,22 @@
       <c r="G9" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="103" t="s">
-        <v>351</v>
+      <c r="H9" s="90" t="s">
+        <v>341</v>
       </c>
       <c r="I9" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K9" s="108" t="s">
-        <v>437</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="K9" s="93"/>
       <c r="L9" s="60" t="s">
-        <v>429</v>
-      </c>
-      <c r="M9" s="104" t="s">
-        <v>393</v>
+        <v>404</v>
+      </c>
+      <c r="M9" s="105" t="s">
+        <v>378</v>
       </c>
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
@@ -7332,7 +7041,7 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="93">
+      <c r="A10" s="58">
         <v>9</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7341,10 +7050,10 @@
       <c r="C10" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="90" t="s">
         <v>243</v>
       </c>
       <c r="F10" s="59" t="s">
@@ -7353,24 +7062,22 @@
       <c r="G10" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>342</v>
+      <c r="H10" s="90" t="s">
+        <v>332</v>
       </c>
       <c r="I10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" s="108" t="s">
-        <v>437</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="K10" s="93"/>
       <c r="L10" s="60" t="s">
-        <v>430</v>
-      </c>
-      <c r="M10" s="104" t="s">
-        <v>393</v>
+        <v>405</v>
+      </c>
+      <c r="M10" s="105" t="s">
+        <v>378</v>
       </c>
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
@@ -7380,7 +7087,7 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="94">
+      <c r="A11" s="54">
         <v>10</v>
       </c>
       <c r="B11" s="55" t="s">
@@ -7389,10 +7096,10 @@
       <c r="C11" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="91" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="55" t="s">
@@ -7401,7 +7108,7 @@
       <c r="G11" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="91" t="s">
         <v>221</v>
       </c>
       <c r="I11" s="56" t="str">
@@ -7409,16 +7116,14 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="107" t="s">
-        <v>437</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="K11" s="92"/>
       <c r="L11" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="M11" s="106" t="s">
-        <v>373</v>
+        <v>406</v>
+      </c>
+      <c r="M11" s="104" t="s">
+        <v>417</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -7438,16 +7143,16 @@
         <v>150</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>243</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H12" s="67" t="s">
         <v>230</v>
@@ -7457,20 +7162,16 @@
         <v>Human fault generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="K12" s="108" t="s">
-        <v>438</v>
-      </c>
-      <c r="L12" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="N12" s="85" t="s">
-        <v>394</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="M12" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="N12" s="80"/>
       <c r="O12" s="50"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
@@ -7488,16 +7189,16 @@
         <v>150</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>230</v>
@@ -7507,20 +7208,16 @@
         <v>Internal attacker generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="L13" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="M13" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="N13" s="85" t="s">
-        <v>394</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="M13" s="104" t="s">
+        <v>417</v>
+      </c>
+      <c r="N13" s="80"/>
       <c r="O13" s="50"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
@@ -7538,16 +7235,16 @@
         <v>150</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>243</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>230</v>
@@ -7557,20 +7254,16 @@
         <v>External supplier generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="K14" s="108" t="s">
-        <v>438</v>
-      </c>
-      <c r="L14" s="98" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="N14" s="85" t="s">
-        <v>394</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="M14" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="N14" s="80"/>
       <c r="O14" s="50"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -7588,16 +7281,16 @@
         <v>150</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>226</v>
@@ -7607,20 +7300,16 @@
         <v>Internal attacker generates a cyber threat causing a Spoofing of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="L15" s="99" t="s">
-        <v>427</v>
-      </c>
-      <c r="M15" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="N15" s="85" t="s">
-        <v>395</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="M15" s="104" t="s">
+        <v>414</v>
+      </c>
+      <c r="N15" s="80"/>
       <c r="O15" s="50"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
@@ -7638,16 +7327,16 @@
         <v>150</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H16" s="67" t="s">
         <v>221</v>
@@ -7657,20 +7346,16 @@
         <v>External supplier generates a cyber threat causing a Spoofing of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="K16" s="108" t="s">
-        <v>438</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K16" s="93"/>
       <c r="L16" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="M16" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="N16" s="85" t="s">
-        <v>396</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M16" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="N16" s="80"/>
       <c r="O16" s="50"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
@@ -7679,7 +7364,7 @@
     </row>
     <row r="17" spans="1:21" s="3" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>43</v>
@@ -7691,13 +7376,13 @@
         <v>290</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>230</v>
@@ -7707,18 +7392,16 @@
         <v>External attacker generates a cyber threat causing a Denial of Service of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
       <c r="J17" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="M17" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="N17" s="85" t="s">
-        <v>394</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M17" s="104" t="s">
+        <v>417</v>
+      </c>
+      <c r="N17" s="80"/>
       <c r="O17" s="50"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -7727,7 +7410,7 @@
     </row>
     <row r="18" spans="1:21" s="3" customFormat="1" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="61" t="s">
         <v>80</v>
@@ -7739,43 +7422,41 @@
         <v>213</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Human fault generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K18" s="71"/>
-      <c r="L18" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="N18" s="85" t="s">
-        <v>397</v>
-      </c>
+      <c r="L18" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="N18" s="80"/>
       <c r="O18" s="50"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>158</v>
@@ -7787,34 +7468,32 @@
         <v>213</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I19" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Internal attacker generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K19" s="70"/>
-      <c r="L19" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>401</v>
-      </c>
+      <c r="L19" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="M19" s="104" t="s">
+        <v>379</v>
+      </c>
+      <c r="N19" s="80"/>
       <c r="O19" s="50"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
@@ -7823,7 +7502,7 @@
     </row>
     <row r="20" spans="1:21" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="61" t="s">
         <v>43</v>
@@ -7835,45 +7514,41 @@
         <v>213</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External attacker generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="K20" s="108" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>428</v>
-      </c>
-      <c r="M20" s="87" t="s">
-        <v>399</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>400</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="M20" s="105" t="s">
+        <v>380</v>
+      </c>
+      <c r="N20" s="80"/>
       <c r="O20" s="50"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="1:21" s="47" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>158</v>
@@ -7888,10 +7563,10 @@
         <v>243</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>226</v>
@@ -7901,77 +7576,71 @@
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K21" s="70"/>
       <c r="L21" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="M21" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="N21" s="85" t="s">
-        <v>403</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M21" s="104" t="s">
+        <v>381</v>
+      </c>
+      <c r="N21" s="80"/>
       <c r="O21" s="50"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:21" s="115" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A22" s="94">
-        <v>22</v>
-      </c>
-      <c r="B22" s="100" t="s">
+    <row r="22" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="54">
+        <v>21</v>
+      </c>
+      <c r="B22" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="111" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="111" t="s">
+      <c r="F22" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="107" t="str">
+      <c r="I22" s="92" t="str">
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J22" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="K22" s="112" t="s">
-        <v>441</v>
-      </c>
-      <c r="L22" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="M22" s="106" t="s">
-        <v>402</v>
-      </c>
-      <c r="N22" s="113" t="s">
-        <v>403</v>
-      </c>
-      <c r="O22" s="114"/>
+      <c r="J22" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" s="95"/>
+      <c r="L22" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="M22" s="104" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="108"/>
+      <c r="O22" s="109"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
       <c r="S22" s="107"/>
     </row>
-    <row r="23" spans="1:21" s="47" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="61" t="s">
         <v>171</v>
@@ -7986,10 +7655,10 @@
         <v>243</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H23" s="67" t="s">
         <v>226</v>
@@ -7999,77 +7668,71 @@
         <v>External supplier generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K23" s="71"/>
       <c r="L23" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="M23" s="87" t="s">
-        <v>404</v>
-      </c>
-      <c r="N23" s="85" t="s">
-        <v>405</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M23" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="N23" s="80"/>
       <c r="O23" s="50"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="1:21" s="120" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A24" s="93">
-        <v>24</v>
-      </c>
-      <c r="B24" s="101" t="s">
+    <row r="24" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>23</v>
+      </c>
+      <c r="B24" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="101" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="116" t="s">
+      <c r="F24" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="I24" s="108" t="str">
+      <c r="I24" s="93" t="str">
         <f t="shared" si="0"/>
         <v>External supplier generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J24" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="L24" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="M24" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="N24" s="117" t="s">
-        <v>405</v>
-      </c>
-      <c r="O24" s="118"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-    </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="J24" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="M24" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="N24" s="108"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+    </row>
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>80</v>
@@ -8084,10 +7747,10 @@
         <v>243</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>226</v>
@@ -8097,72 +7760,66 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="M25" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="115" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A26" s="94">
-        <v>26</v>
-      </c>
-      <c r="B26" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="M25" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="54">
+        <v>25</v>
+      </c>
+      <c r="B26" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="111" t="s">
-        <v>309</v>
-      </c>
-      <c r="H26" s="111" t="s">
+      <c r="F26" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="107" t="str">
+      <c r="I26" s="92" t="str">
         <f t="shared" si="0"/>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J26" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="K26" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="L26" s="107" t="s">
-        <v>364</v>
-      </c>
-      <c r="M26" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="N26" s="121" t="s">
-        <v>407</v>
-      </c>
-      <c r="O26" s="122"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
+      <c r="J26" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="M26" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="N26" s="111"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" spans="1:21" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>289</v>
@@ -8177,13 +7834,13 @@
         <v>291</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I27" s="60" t="str">
         <f t="shared" si="0"/>
@@ -8191,19 +7848,19 @@
 for bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K27" s="73"/>
       <c r="L27" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="M27" s="81" t="s">
-        <v>390</v>
+        <v>352</v>
+      </c>
+      <c r="M27" s="105" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>289</v>
@@ -8218,13 +7875,13 @@
         <v>291</v>
       </c>
       <c r="F28" s="72" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I28" s="60" t="str">
         <f t="shared" si="0"/>
@@ -8232,14 +7889,14 @@
 for bathing water quality which affects Digital solution users and might lead to a Information leak issue</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K28" s="73"/>
       <c r="L28" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="M28" s="81" t="s">
-        <v>390</v>
+        <v>352</v>
+      </c>
+      <c r="M28" s="105" t="s">
+        <v>375</v>
       </c>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -8250,7 +7907,7 @@
     </row>
     <row r="29" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="74" t="s">
         <v>289</v>
@@ -8265,13 +7922,13 @@
         <v>293</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H29" s="74" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I29" s="56" t="str">
         <f t="shared" si="0"/>
@@ -8279,14 +7936,14 @@
 for bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
       <c r="J29" s="74" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K29" s="74"/>
       <c r="L29" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>391</v>
+        <v>352</v>
+      </c>
+      <c r="M29" s="104" t="s">
+        <v>376</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -8297,7 +7954,7 @@
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="74" t="s">
         <v>289</v>
@@ -8312,10 +7969,10 @@
         <v>293</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H30" s="74" t="s">
         <v>230</v>
@@ -8326,16 +7983,14 @@
 for bathing water quality which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="K30" s="107" t="s">
-        <v>437</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K30" s="92"/>
       <c r="L30" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="M30" s="82" t="s">
-        <v>391</v>
+        <v>407</v>
+      </c>
+      <c r="M30" s="104" t="s">
+        <v>376</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -8348,7 +8003,7 @@
     </row>
     <row r="31" spans="1:21" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="74" t="s">
         <v>289</v>
@@ -8363,13 +8018,13 @@
         <v>293</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I31" s="56" t="str">
         <f t="shared" si="0"/>
@@ -8377,16 +8032,14 @@
 for bathing water quality which affects Digital solution users and might lead to a Health issues issue</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="K31" s="107" t="s">
-        <v>437</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K31" s="92"/>
       <c r="L31" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="M31" s="82" t="s">
-        <v>391</v>
+        <v>408</v>
+      </c>
+      <c r="M31" s="104" t="s">
+        <v>376</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -8397,7 +8050,7 @@
     </row>
     <row r="32" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="59" t="s">
         <v>289</v>
@@ -8409,13 +8062,13 @@
         <v>290</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H32" s="59" t="s">
         <v>221</v>
@@ -8426,14 +8079,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="M32" s="83" t="s">
-        <v>413</v>
+        <v>315</v>
+      </c>
+      <c r="M32" s="105" t="s">
+        <v>388</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -8444,7 +8097,7 @@
     </row>
     <row r="33" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>289</v>
@@ -8456,13 +8109,13 @@
         <v>292</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H33" s="55" t="s">
         <v>221</v>
@@ -8473,14 +8126,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="M33" s="86" t="s">
-        <v>408</v>
+        <v>315</v>
+      </c>
+      <c r="M33" s="104" t="s">
+        <v>384</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -8490,8 +8143,8 @@
       <c r="S33" s="46"/>
     </row>
     <row r="34" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="110">
-        <v>34</v>
+      <c r="A34" s="58">
+        <v>33</v>
       </c>
       <c r="B34" s="59" t="s">
         <v>289</v>
@@ -8506,10 +8159,10 @@
         <v>243</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H34" s="59" t="s">
         <v>221</v>
@@ -8520,16 +8173,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="L34" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="M34" s="83" t="s">
-        <v>375</v>
+        <v>314</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="M34" s="105" t="s">
+        <v>363</v>
       </c>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
@@ -8539,8 +8190,8 @@
       <c r="S34" s="46"/>
     </row>
     <row r="35" spans="1:21" s="3" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="110">
-        <v>35</v>
+      <c r="A35" s="58">
+        <v>34</v>
       </c>
       <c r="B35" s="59" t="s">
         <v>289</v>
@@ -8555,13 +8206,13 @@
         <v>243</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I35" s="60" t="str">
         <f t="shared" si="0"/>
@@ -8569,16 +8220,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Health issues issue</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="L35" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="M35" s="83" t="s">
-        <v>375</v>
+        <v>314</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="M35" s="105" t="s">
+        <v>363</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -8588,11 +8237,11 @@
       <c r="S35" s="47"/>
     </row>
     <row r="36" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="110">
-        <v>36</v>
+      <c r="A36" s="54">
+        <v>35</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C36" s="55" t="s">
         <v>150</v>
@@ -8604,10 +8253,10 @@
         <v>243</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H36" s="57" t="s">
         <v>230</v>
@@ -8618,16 +8267,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Reputation issue</v>
       </c>
       <c r="J36" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="L36" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="M36" s="80" t="s">
-        <v>409</v>
+        <v>314</v>
+      </c>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" s="104" t="s">
+        <v>385</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -8637,11 +8284,11 @@
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37" s="110">
-        <v>37</v>
+      <c r="A37" s="54">
+        <v>36</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>150</v>
@@ -8653,10 +8300,10 @@
         <v>243</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H37" s="55" t="s">
         <v>221</v>
@@ -8667,16 +8314,14 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J37" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="L37" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="M37" s="86" t="s">
-        <v>409</v>
+        <v>314</v>
+      </c>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" s="104" t="s">
+        <v>385</v>
       </c>
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
@@ -8687,7 +8332,7 @@
     </row>
     <row r="38" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="59" t="s">
         <v>289</v>
@@ -8699,13 +8344,13 @@
         <v>292</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H38" s="59" t="s">
         <v>226</v>
@@ -8715,14 +8360,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Match-making tool which affects Digital solution users and might lead to a Quantity issue</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K38" s="60"/>
       <c r="L38" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="M38" s="83" t="s">
-        <v>412</v>
+        <v>324</v>
+      </c>
+      <c r="M38" s="105" t="s">
+        <v>387</v>
       </c>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
@@ -8733,7 +8378,7 @@
     </row>
     <row r="39" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="59" t="s">
         <v>289</v>
@@ -8745,13 +8390,13 @@
         <v>292</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H39" s="59" t="s">
         <v>221</v>
@@ -8761,14 +8406,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Match-making tool which affects Digital solution users and might lead to a Quality issue</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K39" s="60"/>
       <c r="L39" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="M39" s="83" t="s">
-        <v>410</v>
+        <v>324</v>
+      </c>
+      <c r="M39" s="105" t="s">
+        <v>386</v>
       </c>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -8778,8 +8423,8 @@
       <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:21" s="47" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="110">
-        <v>40</v>
+      <c r="A40" s="54">
+        <v>39</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>289</v>
@@ -8794,10 +8439,10 @@
         <v>243</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H40" s="55" t="s">
         <v>226</v>
@@ -8807,16 +8452,14 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the Match-making tool which affects Digital solution users and might lead to a Quantity issue</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="L40" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="M40" s="86" t="s">
-        <v>411</v>
+        <v>322</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" s="104" t="s">
+        <v>389</v>
       </c>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
@@ -8826,8 +8469,8 @@
       <c r="S40" s="46"/>
     </row>
     <row r="41" spans="1:21" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="110">
-        <v>41</v>
+      <c r="A41" s="54">
+        <v>40</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>289</v>
@@ -8842,10 +8485,10 @@
         <v>243</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H41" s="55" t="s">
         <v>221</v>
@@ -8855,16 +8498,14 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the Match-making tool which affects Digital solution users and might lead to a Quality issue</v>
       </c>
       <c r="J41" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="L41" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="M41" s="86" t="s">
-        <v>414</v>
+        <v>322</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" s="104" t="s">
+        <v>389</v>
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
@@ -8877,7 +8518,7 @@
     </row>
     <row r="42" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="58">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="59" t="s">
         <v>289</v>
@@ -8892,27 +8533,27 @@
         <v>243</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I42" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Match-making tool which affects Digital solution users and might lead to a Damage to stakeholder activtiy issue</v>
       </c>
       <c r="J42" s="68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K42" s="60"/>
       <c r="L42" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="M42" s="83" t="s">
-        <v>416</v>
+        <v>390</v>
+      </c>
+      <c r="M42" s="105" t="s">
+        <v>391</v>
       </c>
       <c r="N42" s="51"/>
       <c r="O42" s="51"/>
@@ -8923,7 +8564,7 @@
     </row>
     <row r="43" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="58">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="59" t="s">
         <v>289</v>
@@ -8938,10 +8579,10 @@
         <v>243</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H43" s="66" t="s">
         <v>230</v>
@@ -8951,14 +8592,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Match-making tool which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J43" s="68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K43" s="60"/>
       <c r="L43" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="M43" s="83" t="s">
-        <v>416</v>
+        <v>390</v>
+      </c>
+      <c r="M43" s="105" t="s">
+        <v>391</v>
       </c>
       <c r="N43" s="51"/>
       <c r="O43" s="51"/>
@@ -8968,8 +8609,8 @@
       <c r="S43" s="11"/>
     </row>
     <row r="44" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="110">
-        <v>44</v>
+      <c r="A44" s="54">
+        <v>43</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>289</v>
@@ -8981,32 +8622,30 @@
         <v>292</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="I44" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web application of the Match-making tool which affects Digital solution users and might lead to a Information Leak issue</v>
       </c>
       <c r="J44" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="K44" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="L44" s="109" t="s">
-        <v>328</v>
-      </c>
-      <c r="M44" s="86" t="s">
-        <v>416</v>
+      <c r="M44" s="104" t="s">
+        <v>391</v>
       </c>
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
@@ -9017,7 +8656,7 @@
     </row>
     <row r="45" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="58">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>80</v>
@@ -9045,16 +8684,14 @@
         <v>Human fault generates a Cyber threat causing a Manipulation of the data of the Server of the ML Based Early warning system for bathing water which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="K45" s="108" t="s">
-        <v>437</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K45" s="93"/>
       <c r="L45" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="M45" s="81" t="s">
-        <v>379</v>
+        <v>409</v>
+      </c>
+      <c r="M45" s="105" t="s">
+        <v>366</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
@@ -9065,7 +8702,7 @@
     </row>
     <row r="46" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="54">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="74" t="s">
         <v>289</v>
@@ -9077,30 +8714,30 @@
         <v>292</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G46" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H46" s="74" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I46" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
       <c r="J46" s="74" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K46" s="74"/>
       <c r="L46" s="74" t="s">
-        <v>361</v>
-      </c>
-      <c r="M46" s="80" t="s">
-        <v>392</v>
+        <v>350</v>
+      </c>
+      <c r="M46" s="104" t="s">
+        <v>377</v>
       </c>
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
@@ -9111,7 +8748,7 @@
     </row>
     <row r="47" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="54">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="74" t="s">
         <v>289</v>
@@ -9123,32 +8760,30 @@
         <v>292</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H47" s="74" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I47" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a Health issues issue</v>
       </c>
       <c r="J47" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="K47" s="56" t="s">
-        <v>437</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K47" s="56"/>
       <c r="L47" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="M47" s="80" t="s">
-        <v>392</v>
+        <v>410</v>
+      </c>
+      <c r="M47" s="104" t="s">
+        <v>377</v>
       </c>
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
@@ -9161,7 +8796,7 @@
     </row>
     <row r="48" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="54">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>289</v>
@@ -9173,13 +8808,13 @@
         <v>292</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H48" s="74" t="s">
         <v>230</v>
@@ -9189,16 +8824,14 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J48" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" s="56" t="s">
-        <v>437</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K48" s="56"/>
       <c r="L48" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="M48" s="80" t="s">
-        <v>392</v>
+        <v>411</v>
+      </c>
+      <c r="M48" s="104" t="s">
+        <v>377</v>
       </c>
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
@@ -9208,8 +8841,8 @@
       <c r="S48" s="11"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="95">
-        <v>49</v>
+      <c r="A49" s="58">
+        <v>48</v>
       </c>
       <c r="B49" s="59" t="s">
         <v>289</v>
@@ -9218,33 +8851,33 @@
         <v>150</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="G49" s="66" t="s">
-        <v>337</v>
+        <v>325</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>320</v>
       </c>
       <c r="H49" s="59" t="s">
         <v>230</v>
       </c>
       <c r="I49" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a manipulation of the data of the Cloud of the mobile sensor (temperature, conductivity) which affects Sewer system and might lead to a Reputation issue</v>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J49" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="K49" s="107" t="s">
-        <v>444</v>
-      </c>
-      <c r="L49" s="96"/>
-      <c r="M49" s="83" t="s">
-        <v>379</v>
+        <v>322</v>
+      </c>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="M49" s="105" t="s">
+        <v>392</v>
       </c>
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
@@ -9254,57 +8887,57 @@
       <c r="S49" s="11"/>
     </row>
     <row r="50" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A50" s="95">
-        <v>50</v>
+      <c r="A50" s="54">
+        <v>49</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="F50" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" s="55" t="s">
-        <v>301</v>
+        <v>150</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>230</v>
       </c>
       <c r="I50" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>Operator generates a Human failure threat causing a missing data of the Cloud of the mobile sensor (temperature, conductivity) which affects Sewer system and might lead to a CSO  issue</v>
+        <v>Internal attacker generates a cyber threat causing a Manipulation of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J50" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="K50" s="107" t="s">
-        <v>444</v>
-      </c>
-      <c r="L50" s="126"/>
-      <c r="M50" s="82" t="s">
-        <v>380</v>
+        <v>322</v>
+      </c>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" s="104" t="s">
+        <v>393</v>
       </c>
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
     </row>
     <row r="51" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="58">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C51" s="59" t="s">
         <v>150</v>
@@ -9313,33 +8946,33 @@
         <v>290</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H51" s="59" t="s">
         <v>230</v>
       </c>
       <c r="I51" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
+        <v>Internal attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J51" s="60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K51" s="60"/>
       <c r="L51" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="M51" s="87" t="s">
-        <v>417</v>
-      </c>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
+        <v>396</v>
+      </c>
+      <c r="M51" s="105" t="s">
+        <v>397</v>
+      </c>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -9347,7 +8980,7 @@
     </row>
     <row r="52" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>158</v>
@@ -9355,91 +8988,91 @@
       <c r="C52" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>332</v>
+      <c r="D52" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>297</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="H52" s="57" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I52" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>Internal attacker generates a cyber threat causing a Manipulation of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
+        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J52" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="M52" s="80" t="s">
-        <v>418</v>
+        <v>322</v>
+      </c>
+      <c r="K52" s="92"/>
+      <c r="L52" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" s="104" t="s">
+        <v>367</v>
       </c>
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-    </row>
-    <row r="53" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A53" s="58">
-        <v>53</v>
-      </c>
-      <c r="B53" s="59" t="s">
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="54">
+        <v>52</v>
+      </c>
+      <c r="B53" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="I53" s="60" t="str">
+      <c r="D53" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="F53" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="H53" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>Internal attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="M53" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
+        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="K53" s="56"/>
+      <c r="L53" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="M53" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
     </row>
     <row r="54" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="95">
-        <v>54</v>
+      <c r="A54" s="54">
+        <v>53</v>
       </c>
       <c r="B54" s="55" t="s">
         <v>158</v>
@@ -9451,30 +9084,30 @@
         <v>292</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H54" s="57" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I54" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
+        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
       <c r="J54" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K54" s="107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L54" s="97"/>
-      <c r="M54" s="82" t="s">
-        <v>381</v>
+        <v>322</v>
+      </c>
+      <c r="K54" s="56"/>
+      <c r="L54" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="M54" s="104" t="s">
+        <v>367</v>
       </c>
       <c r="N54" s="50"/>
       <c r="O54" s="50"/>
@@ -9483,44 +9116,44 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A55" s="95">
-        <v>55</v>
-      </c>
-      <c r="B55" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="74" t="s">
+    <row r="55" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A55" s="58">
+        <v>54</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E55" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>358</v>
-      </c>
-      <c r="G55" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="H55" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="I55" s="56" t="str">
+      <c r="E55" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
-      </c>
-      <c r="J55" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="K55" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="L55" s="97"/>
-      <c r="M55" s="82" t="s">
-        <v>381</v>
+        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
+      </c>
+      <c r="J55" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" s="60"/>
+      <c r="L55" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" s="105" t="s">
+        <v>362</v>
       </c>
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
@@ -9529,44 +9162,44 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A56" s="95">
-        <v>56</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="55" t="s">
+    <row r="56" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="58">
+        <v>55</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="G56" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="56" t="str">
+      <c r="E56" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
-      </c>
-      <c r="J56" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K56" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="L56" s="96"/>
-      <c r="M56" s="82" t="s">
-        <v>381</v>
+        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J56" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" s="60"/>
+      <c r="L56" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="M56" s="105" t="s">
+        <v>362</v>
       </c>
       <c r="N56" s="50"/>
       <c r="O56" s="50"/>
@@ -9575,9 +9208,9 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="1:19" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="59" t="s">
         <v>289</v>
@@ -9589,176 +9222,168 @@
         <v>292</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I57" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
+        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
       <c r="J57" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="L57" s="108" t="s">
-        <v>445</v>
-      </c>
-      <c r="M57" s="83" t="s">
-        <v>374</v>
+        <v>322</v>
+      </c>
+      <c r="K57" s="60"/>
+      <c r="L57" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" s="105" t="s">
+        <v>362</v>
       </c>
       <c r="N57" s="50"/>
       <c r="O57" s="50"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-    </row>
-    <row r="58" spans="1:19" s="47" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A58" s="58">
-        <v>58</v>
-      </c>
-      <c r="B58" s="59" t="s">
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+    </row>
+    <row r="58" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58" s="54">
+        <v>57</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H58" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="I58" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
-      </c>
-      <c r="J58" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K58" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="L58" s="108" t="s">
-        <v>445</v>
-      </c>
-      <c r="M58" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-    </row>
-    <row r="59" spans="1:19" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A59" s="58">
-        <v>59</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="G59" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="I59" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
-      </c>
-      <c r="J59" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K59" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="L59" s="108" t="s">
-        <v>445</v>
-      </c>
-      <c r="M59" s="81" t="s">
-        <v>374</v>
-      </c>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-    </row>
-    <row r="60" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A60" s="110">
-        <v>60</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="55" t="s">
+      <c r="D58" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="E60" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="G60" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="H60" s="57" t="s">
+      <c r="E58" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H58" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="I60" s="56" t="str">
+      <c r="I58" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J60" s="56" t="s">
+      <c r="J58" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K58" s="92"/>
+      <c r="L58" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="M58" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+    </row>
+    <row r="59" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="54">
+        <v>58</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" s="92"/>
+      <c r="L59" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="M59" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+    </row>
+    <row r="60" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="58">
+        <v>59</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H60" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
+      </c>
+      <c r="J60" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K60" s="93"/>
+      <c r="L60" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="K60" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="L60" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="M60" s="82" t="s">
-        <v>376</v>
+      <c r="M60" s="77">
+        <v>27</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
@@ -9768,45 +9393,43 @@
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A61" s="110">
-        <v>61</v>
-      </c>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="58">
+        <v>60</v>
+      </c>
+      <c r="B61" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="G61" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="H61" s="57" t="s">
+      <c r="D61" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="I61" s="56" t="str">
+      <c r="I61" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
-      </c>
-      <c r="J61" s="56" t="s">
+        <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J61" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K61" s="93"/>
+      <c r="L61" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="K61" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="L61" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="M61" s="82" t="s">
-        <v>376</v>
+      <c r="M61" s="77">
+        <v>27</v>
       </c>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
@@ -9815,46 +9438,44 @@
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
     </row>
-    <row r="62" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A62" s="110">
-        <v>62</v>
-      </c>
-      <c r="B62" s="59" t="s">
+    <row r="62" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="54">
+        <v>61</v>
+      </c>
+      <c r="B62" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="F62" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="G62" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" s="66" t="s">
+      <c r="D62" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="H62" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="I62" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
-      </c>
-      <c r="J62" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K62" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="L62" s="109" t="s">
-        <v>339</v>
-      </c>
-      <c r="M62" s="77">
-        <v>27</v>
+      <c r="I62" s="56" t="str">
+        <f>CONCATENATE(B62," generates a ",C62," threat causing a ",D62," of the ",E62," of the ",F62," which affects ",G62," and might lead to a ",H62," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Temperature sensor Web-Platform which affects CSOs data quality and might lead to a Financial issue</v>
+      </c>
+      <c r="J62" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="K62" s="92"/>
+      <c r="L62" s="95" t="s">
+        <v>416</v>
+      </c>
+      <c r="M62" s="76" t="s">
+        <v>363</v>
       </c>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
@@ -9864,45 +9485,43 @@
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="110">
-        <v>63</v>
+      <c r="A63" s="58">
+        <v>62</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H63" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="I63" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
-      </c>
-      <c r="J63" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K63" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="L63" s="109" t="s">
-        <v>339</v>
-      </c>
-      <c r="M63" s="77">
-        <v>27</v>
+        <v>232</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" s="82" t="str">
+        <f>CONCATENATE(B63," generates a ",C63," threat causing a ",D63," of the ",E63," of the ",F63," which affects ",G63," and might lead to a ",H63," issue")</f>
+        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
+      </c>
+      <c r="J63" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K63" s="82"/>
+      <c r="L63" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="M63" s="106" t="s">
+        <v>371</v>
       </c>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
@@ -9912,43 +9531,43 @@
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="95">
-        <v>64</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="55" t="s">
+      <c r="A64" s="58">
+        <v>63</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E64" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F64" s="55" t="s">
+      <c r="E64" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H64" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="G64" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="H64" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="I64" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Web Platorm (Berlin) which affects Sewer system and might lead to a Financial issue</v>
-      </c>
-      <c r="J64" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K64" s="107" t="s">
-        <v>444</v>
-      </c>
-      <c r="L64" s="125"/>
-      <c r="M64" s="79" t="s">
-        <v>374</v>
+      <c r="I64" s="82" t="str">
+        <f t="shared" ref="I64:I101" si="1">CONCATENATE(B64," generates a ",C64," threat causing a ",D64," of the ",E64," of the ",F64," which affects ",G64," and might lead to a ",H64," issue")</f>
+        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information Leak issue</v>
+      </c>
+      <c r="J64" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K64" s="82"/>
+      <c r="L64" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="M64" s="106" t="s">
+        <v>371</v>
       </c>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
@@ -9958,43 +9577,43 @@
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A65" s="95">
-        <v>65</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" s="55" t="s">
+      <c r="A65" s="58">
+        <v>64</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E65" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="G65" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="H65" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="I65" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Web Platorm (Berlin) which affects Sewer system and might lead to a Quality issue</v>
-      </c>
-      <c r="J65" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K65" s="107" t="s">
-        <v>444</v>
-      </c>
-      <c r="L65" s="125"/>
-      <c r="M65" s="76" t="s">
-        <v>374</v>
+      <c r="E65" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="I65" s="82" t="str">
+        <f>CONCATENATE(B65," generates a ",C65," threat causing a ",D65," of the ",E65," of the ",F65," which affects ",G65," and might lead to a ",H65," issue")</f>
+        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
+      </c>
+      <c r="J65" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K65" s="82"/>
+      <c r="L65" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="M65" s="77" t="s">
+        <v>373</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
@@ -10003,92 +9622,90 @@
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
     </row>
-    <row r="66" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A66" s="95">
-        <v>66</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>289</v>
+    <row r="66" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="58">
+        <v>65</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>80</v>
       </c>
       <c r="C66" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="H66" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" s="60" t="str">
-        <f>CONCATENATE(B66," generates a ",C66," threat causing a ",D66," of the ",E66," of the ",F66," which affects ",G66," and might lead to a ",H66," issue")</f>
-        <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Temperature sensor Web-Platform which affects CSOs data quality and might lead to a Financial issue</v>
-      </c>
-      <c r="J66" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="K66" s="108" t="s">
-        <v>448</v>
-      </c>
-      <c r="L66" s="125"/>
-      <c r="M66" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-    </row>
-    <row r="67" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A67" s="110">
-        <v>67</v>
+      <c r="F66" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="G66" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="I66" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
+      </c>
+      <c r="J66" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K66" s="82"/>
+      <c r="L66" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="M66" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="54">
+        <v>66</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="C67" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>243</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="I67" s="56" t="str">
-        <f>CONCATENATE(B67," generates a ",C67," threat causing a ",D67," of the ",E67," of the ",F67," which affects ",G67," and might lead to a ",H67," issue")</f>
-        <v>Internal attacker generates a cyber threat causing a Eavesdropping of the Server of the Well-Diary which affects Operator and might lead to a Information Leak issue</v>
-      </c>
-      <c r="J67" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="K67" s="107" t="s">
-        <v>450</v>
-      </c>
-      <c r="L67" s="124" t="s">
-        <v>449</v>
-      </c>
-      <c r="M67" s="84" t="s">
-        <v>382</v>
+        <v>221</v>
+      </c>
+      <c r="I67" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
+      </c>
+      <c r="J67" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="K67" s="83"/>
+      <c r="L67" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="M67" s="76" t="s">
+        <v>373</v>
       </c>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
@@ -10097,44 +9714,44 @@
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
     </row>
-    <row r="68" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A68" s="93">
-        <v>68</v>
-      </c>
-      <c r="B68" s="59" t="s">
+    <row r="68" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="54">
+        <v>67</v>
+      </c>
+      <c r="B68" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" s="59" t="s">
+      <c r="D68" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G68" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="I68" s="89" t="str">
+      <c r="H68" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="83" t="str">
         <f>CONCATENATE(B68," generates a ",C68," threat causing a ",D68," of the ",E68," of the ",F68," which affects ",G68," and might lead to a ",H68," issue")</f>
-        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
-      </c>
-      <c r="J68" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="K68" s="89"/>
-      <c r="L68" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="M68" s="90" t="s">
-        <v>386</v>
+        <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Reputation issue</v>
+      </c>
+      <c r="J68" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="K68" s="83"/>
+      <c r="L68" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="M68" s="76" t="s">
+        <v>373</v>
       </c>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -10144,43 +9761,43 @@
       <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A69" s="93">
-        <v>69</v>
+      <c r="A69" s="58">
+        <v>68</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="C69" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E69" s="59" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="F69" s="59" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="H69" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="I69" s="89" t="str">
-        <f t="shared" ref="I69:I106" si="1">CONCATENATE(B69," generates a ",C69," threat causing a ",D69," of the ",E69," of the ",F69," which affects ",G69," and might lead to a ",H69," issue")</f>
-        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information Leak issue</v>
-      </c>
-      <c r="J69" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="M69" s="90" t="s">
-        <v>386</v>
+        <v>230</v>
+      </c>
+      <c r="I69" s="60" t="str">
+        <f>CONCATENATE(B69," generates a ",C69," threat causing a ",D69," of the ",E69," of the ",F69," which affects ",G69," and might lead to a ",H69," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
+      </c>
+      <c r="J69" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M69" s="105" t="s">
+        <v>395</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
@@ -10189,45 +9806,13 @@
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
     </row>
-    <row r="70" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A70" s="93">
-        <v>70</v>
-      </c>
-      <c r="B70" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="G70" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H70" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="I70" s="89" t="str">
-        <f>CONCATENATE(B70," generates a ",C70," threat causing a ",D70," of the ",E70," of the ",F70," which affects ",G70," and might lead to a ",H70," issue")</f>
-        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
-      </c>
-      <c r="J70" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="K70" s="89"/>
-      <c r="L70" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="M70" s="78" t="s">
-        <v>388</v>
-      </c>
+    <row r="70" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="84"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
@@ -10235,137 +9820,41 @@
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
     </row>
-    <row r="71" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A71" s="93">
-        <v>71</v>
-      </c>
-      <c r="B71" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F71" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="G71" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H71" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="I71" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
-      </c>
-      <c r="J71" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="K71" s="89"/>
-      <c r="L71" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="M71" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-    </row>
-    <row r="72" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="94">
-        <v>72</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="G72" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="H72" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="I72" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
-      </c>
-      <c r="J72" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="K72" s="91"/>
-      <c r="L72" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="M72" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-    </row>
-    <row r="73" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="94">
-        <v>73</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="H73" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="I73" s="91" t="str">
-        <f>CONCATENATE(B73," generates a ",C73," threat causing a ",D73," of the ",E73," of the ",F73," which affects ",G73," and might lead to a ",H73," issue")</f>
-        <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Reputation issue</v>
-      </c>
-      <c r="J73" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="K73" s="91"/>
-      <c r="L73" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="M73" s="79" t="s">
-        <v>388</v>
-      </c>
+    <row r="71" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="84"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+    </row>
+    <row r="72" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="84"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+    </row>
+    <row r="73" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="84"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
@@ -10373,45 +9862,13 @@
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
     </row>
-    <row r="74" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="58">
-        <v>74</v>
-      </c>
-      <c r="B74" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="G74" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="H74" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="I74" s="60" t="str">
-        <f>CONCATENATE(B74," generates a ",C74," threat causing a ",D74," of the ",E74," of the ",F74," which affects ",G74," and might lead to a ",H74," issue")</f>
-        <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
-      </c>
-      <c r="J74" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60" t="s">
-        <v>419</v>
-      </c>
-      <c r="M74" s="87" t="s">
-        <v>420</v>
-      </c>
+    <row r="74" spans="1:19" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="84"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="18"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
@@ -10419,18 +9876,13 @@
       <c r="R74" s="15"/>
       <c r="S74" s="15"/>
     </row>
-    <row r="75" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="92">
-        <v>48</v>
-      </c>
-      <c r="I75" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="75" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="84"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="M75" s="18"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
@@ -10438,52 +9890,37 @@
       <c r="R75" s="15"/>
       <c r="S75" s="15"/>
     </row>
-    <row r="76" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="92">
-        <v>49</v>
-      </c>
-      <c r="I76" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="76" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="84"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
-      <c r="L76" s="15"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="15"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-    </row>
-    <row r="77" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="92">
-        <v>50</v>
-      </c>
-      <c r="I77" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+    </row>
+    <row r="77" spans="1:19" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="84"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
-      <c r="L77" s="15"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="15"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-    </row>
-    <row r="78" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="92">
-        <v>51</v>
-      </c>
-      <c r="I78" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+    </row>
+    <row r="78" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="84"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="15"/>
@@ -10495,529 +9932,318 @@
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
-    <row r="79" spans="1:19" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="92">
-        <v>52</v>
-      </c>
-      <c r="I79" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="79" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="84"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="15"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
-    <row r="80" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="92">
-        <v>53</v>
-      </c>
-      <c r="I80" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="80" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="84"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="15"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-    </row>
-    <row r="81" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="92">
-        <v>54</v>
-      </c>
-      <c r="I81" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+    </row>
+    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="84"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
-      <c r="L81" s="18"/>
+      <c r="L81" s="15"/>
       <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-    </row>
-    <row r="82" spans="1:21" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="92">
-        <v>55</v>
-      </c>
-      <c r="I82" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+    </row>
+    <row r="82" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="84"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
-      <c r="L82" s="18"/>
+      <c r="L82" s="15"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-    </row>
-    <row r="83" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="92">
-        <v>56</v>
-      </c>
-      <c r="I83" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+    </row>
+    <row r="83" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="84"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-    </row>
-    <row r="84" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="92">
-        <v>57</v>
-      </c>
-      <c r="I84" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="M83" s="20"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+    </row>
+    <row r="84" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="84"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-    </row>
-    <row r="85" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="92">
-        <v>58</v>
-      </c>
-      <c r="I85" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+    </row>
+    <row r="85" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="84"/>
+      <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="19"/>
       <c r="N85" s="20"/>
       <c r="O85" s="20"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-    </row>
-    <row r="86" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="92">
-        <v>59</v>
-      </c>
-      <c r="I86" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="84"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-    </row>
-    <row r="87" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="92">
-        <v>60</v>
-      </c>
-      <c r="I87" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L86" s="19"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="1:21" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="84"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-    </row>
-    <row r="88" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="92">
-        <v>61</v>
-      </c>
-      <c r="I88" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L87" s="19"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="84"/>
+      <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
-      <c r="L88" s="15"/>
+      <c r="L88" s="18"/>
       <c r="M88" s="20"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-    </row>
-    <row r="89" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="92">
-        <v>62</v>
-      </c>
-      <c r="I89" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:21" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="84"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
     </row>
-    <row r="90" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="92">
-        <v>63</v>
-      </c>
-      <c r="I90" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="84"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
     </row>
-    <row r="91" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="92">
-        <v>64</v>
-      </c>
-      <c r="I91" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    <row r="91" spans="1:21" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="84"/>
+      <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="18"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="15"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
-    </row>
-    <row r="92" spans="1:21" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="92">
-        <v>65</v>
-      </c>
-      <c r="I92" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="T91" s="15"/>
+      <c r="U91" s="11"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A92" s="84"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-    </row>
-    <row r="93" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="92">
-        <v>66</v>
-      </c>
-      <c r="I93" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A93" s="84"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-    </row>
-    <row r="94" spans="1:21" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="92">
-        <v>67</v>
-      </c>
-      <c r="I94" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A94" s="84"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-    </row>
-    <row r="95" spans="1:21" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="92">
-        <v>68</v>
-      </c>
-      <c r="I95" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L94" s="21"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95" s="84"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-    </row>
-    <row r="96" spans="1:21" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="92">
-        <v>69</v>
-      </c>
-      <c r="I96" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A96" s="84"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="11"/>
-    </row>
-    <row r="97" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="92">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="84"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="I97" s="11"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="20"/>
-    </row>
-    <row r="98" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="92">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="84"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="20"/>
-    </row>
-    <row r="99" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="92">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="84"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="21"/>
-    </row>
-    <row r="100" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="92">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="84"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+      <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="21"/>
-    </row>
-    <row r="101" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="92">
-        <v>74</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="84"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="92">
-        <v>75</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
-      <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="92">
-        <v>76</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="92">
-        <v>77</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
-      <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="92">
-        <v>78</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
-      <c r="J105" s="11"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="92">
-        <v>79</v>
-      </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> generates a  threat causing a  of the  of the  which affects  and might lead to a  issue</v>
-      </c>
-      <c r="J106" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U106" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U96">
-      <sortCondition ref="F1:F96"/>
+  <autoFilter ref="A1:U101" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
+      <sortCondition ref="F1:F91"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11050,15 +10276,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="A1" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -11074,13 +10300,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>211</v>
@@ -11095,13 +10321,13 @@
         <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>215</v>
@@ -11124,7 +10350,7 @@
         <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>293</v>
@@ -11150,10 +10376,10 @@
         <v>223</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>225</v>
@@ -11171,13 +10397,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>229</v>
@@ -11195,14 +10421,14 @@
         <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="30"/>
@@ -11213,14 +10439,14 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="30"/>
@@ -11231,14 +10457,14 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="30"/>
@@ -11249,14 +10475,14 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>237</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="30"/>
@@ -11267,14 +10493,14 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -11287,7 +10513,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -11622,6 +10848,70 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC1568021308007D9A44593717FD459F2251A9B7FBE71C" ma:contentTypeVersion="47" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ab4005d24905ce748abc3222dd769ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="7bdb29a1-6c05-4985-aeaa-94b963d0ed58" xmlns:ns4="a9260caa-56b2-4fff-8c54-08cce2d35f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07833896cc6ce16441ca1bfabcee7232" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
@@ -12178,70 +11468,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
   <ds:schemaRefs>
@@ -12251,6 +11477,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44318AEA-79F5-4235-8B02-6DD2CEC3378F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12268,22 +11512,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBE180-A590-6F4A-AD43-890634674985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A775A02-B294-B04F-ABCB-789DAE6325F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,11 @@
     <sheet name="STOP-IT Database" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="STOP-IT Options" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="DWC - Database" sheetId="4" r:id="rId4"/>
-    <sheet name="DWC - Options" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="DWC - Options" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$U$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$S$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'STOP-IT Database'!$A$1:$R$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="412">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -999,12 +1000,6 @@
 Consequence</t>
   </si>
   <si>
-    <t>suggested by</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>External Attacker</t>
   </si>
   <si>
@@ -1023,9 +1018,6 @@
     <t>manipulation of the data</t>
   </si>
   <si>
-    <t>SIAAP</t>
-  </si>
-  <si>
     <t>Discharge of pollutants</t>
   </si>
   <si>
@@ -1038,16 +1030,10 @@
     <t>CSOs data quality</t>
   </si>
   <si>
-    <t>Sofiyska voda, DS15 - proposed by Sewer Project manager</t>
-  </si>
-  <si>
     <t>DS11 Flow forecast</t>
   </si>
   <si>
     <t>Sewers or Wastewater treatment plant</t>
-  </si>
-  <si>
-    <t>BIOFOS</t>
   </si>
   <si>
     <t>Denial of service</t>
@@ -1081,9 +1067,6 @@
 for safe water reuse</t>
   </si>
   <si>
-    <t>CAP-UNIVPM</t>
-  </si>
-  <si>
     <t>An attacker might manipulate the Early Warning system's data, therefore generating warnings not related to the actual water quality. The latter would lead to water reuse quality issues and/or wastewater tratment plant reputation impacts.</t>
   </si>
   <si>
@@ -1103,9 +1086,6 @@
   </si>
   <si>
     <t xml:space="preserve">An external attacker might get sensible information on the users of the Match-making tool </t>
-  </si>
-  <si>
-    <t>SINTEF</t>
   </si>
   <si>
     <t>An attacker steal a sensor in order to access the firmware on it an possibly get access to the server (he might want to send fake data).</t>
@@ -1849,7 +1829,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2020,14 +2000,9 @@
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2103,21 +2078,6 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2147,6 +2107,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2243,10 +2218,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,31 +2446,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="97"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -6196,19 +6167,19 @@
     <row r="27" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -6231,7 +6202,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="100"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="36">
         <v>1</v>
       </c>
@@ -6582,16 +6553,16 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
@@ -6600,17 +6571,15 @@
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
     <col min="9" max="9" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="54.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="54.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="54.83203125" style="11" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="54.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="54.83203125" style="11" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
         <v>29</v>
       </c>
@@ -6639,49 +6608,43 @@
         <v>21</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>222</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>232</v>
@@ -6696,40 +6659,36 @@
       <c r="J2" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="K2" s="96" t="s">
+        <v>361</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-    </row>
-    <row r="3" spans="1:21" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>232</v>
@@ -6742,45 +6701,41 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="M3" s="105" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+        <v>339</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-    </row>
-    <row r="4" spans="1:21" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <v>3</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>221</v>
@@ -6790,45 +6745,41 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the ALERT SYSTEM which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="M4" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+        <v>339</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-    </row>
-    <row r="5" spans="1:21" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" s="44" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="58">
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>221</v>
@@ -6838,42 +6789,38 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="M5" s="105" t="s">
-        <v>374</v>
-      </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+        <v>316</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>232</v>
@@ -6886,229 +6833,209 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="M6" s="104" t="s">
-        <v>374</v>
-      </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+        <v>316</v>
+      </c>
+      <c r="K6" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>232</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I7" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>374</v>
-      </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+        <v>316</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <v>7</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>232</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I8" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="M8" s="104" t="s">
-        <v>374</v>
-      </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+        <v>316</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="58">
         <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="90" t="s">
+      <c r="D9" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="87" t="s">
         <v>243</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G9" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="90" t="s">
-        <v>341</v>
+      <c r="H9" s="87" t="s">
+        <v>334</v>
       </c>
       <c r="I9" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="M9" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
+        <v>397</v>
+      </c>
+      <c r="K9" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <v>9</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="90" t="s">
+      <c r="D10" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="87" t="s">
         <v>243</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="90" t="s">
-        <v>332</v>
+      <c r="H10" s="87" t="s">
+        <v>325</v>
       </c>
       <c r="I10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="M10" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
+        <v>398</v>
+      </c>
+      <c r="K10" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <v>10</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="91" t="s">
+      <c r="D11" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="88" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="88" t="s">
         <v>221</v>
       </c>
       <c r="I11" s="56" t="str">
@@ -7116,23 +7043,19 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="M11" s="104" t="s">
-        <v>417</v>
-      </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+        <v>399</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <v>11</v>
       </c>
@@ -7143,16 +7066,16 @@
         <v>150</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>243</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H12" s="67" t="s">
         <v>230</v>
@@ -7161,24 +7084,20 @@
         <f t="shared" si="0"/>
         <v>Human fault generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
-      <c r="J12" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="85" t="s">
-        <v>400</v>
-      </c>
-      <c r="M12" s="105" t="s">
-        <v>417</v>
-      </c>
-      <c r="N12" s="80"/>
-      <c r="O12" s="50"/>
+      <c r="J12" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" s="97" t="s">
+        <v>410</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7189,16 +7108,16 @@
         <v>150</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>230</v>
@@ -7207,24 +7126,20 @@
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="86" t="s">
-        <v>401</v>
-      </c>
-      <c r="M13" s="104" t="s">
-        <v>417</v>
-      </c>
-      <c r="N13" s="80"/>
-      <c r="O13" s="50"/>
+      <c r="J13" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="77"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <v>13</v>
       </c>
@@ -7235,16 +7150,16 @@
         <v>150</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>243</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>230</v>
@@ -7253,24 +7168,20 @@
         <f t="shared" si="0"/>
         <v>External supplier generates a cyber threat causing a Denial of service of the Server of the DS 12 Decision support system which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
-      <c r="J14" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="85" t="s">
-        <v>398</v>
-      </c>
-      <c r="M14" s="105" t="s">
-        <v>417</v>
-      </c>
-      <c r="N14" s="80"/>
-      <c r="O14" s="50"/>
+      <c r="J14" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="97" t="s">
+        <v>410</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7281,16 +7192,16 @@
         <v>150</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>226</v>
@@ -7299,24 +7210,20 @@
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Spoofing of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
-      <c r="J15" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="M15" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="N15" s="80"/>
-      <c r="O15" s="50"/>
+      <c r="J15" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="K15" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="L15" s="77"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-    </row>
-    <row r="16" spans="1:21" s="47" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" s="47" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <v>15</v>
       </c>
@@ -7327,16 +7234,16 @@
         <v>150</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" s="67" t="s">
         <v>221</v>
@@ -7345,24 +7252,20 @@
         <f t="shared" si="0"/>
         <v>External supplier generates a cyber threat causing a Spoofing of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J16" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="M16" s="105" t="s">
-        <v>364</v>
-      </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="50"/>
+      <c r="J16" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="77"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-    </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7373,16 +7276,16 @@
         <v>150</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>230</v>
@@ -7391,24 +7294,20 @@
         <f t="shared" si="0"/>
         <v>External attacker generates a cyber threat causing a Denial of Service of the Web application of the DS 13 Interface  which affects Sewers or Wastewater treatment plant and might lead to a Reputation issue</v>
       </c>
-      <c r="J17" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="M17" s="104" t="s">
-        <v>417</v>
-      </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="50"/>
+      <c r="J17" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="77"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <v>17</v>
       </c>
@@ -7422,39 +7321,35 @@
         <v>213</v>
       </c>
       <c r="E18" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="F18" s="61" t="s">
-        <v>301</v>
-      </c>
       <c r="G18" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>Human fault generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
-      <c r="J18" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="M18" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="50"/>
+      <c r="J18" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="L18" s="77"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -7468,39 +7363,35 @@
         <v>213</v>
       </c>
       <c r="E19" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>301</v>
-      </c>
       <c r="G19" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I19" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Internal attacker generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
-      <c r="J19" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="104" t="s">
-        <v>379</v>
-      </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="50"/>
+      <c r="J19" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="96" t="s">
+        <v>372</v>
+      </c>
+      <c r="L19" s="77"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <v>19</v>
       </c>
@@ -7514,39 +7405,35 @@
         <v>213</v>
       </c>
       <c r="E20" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="F20" s="61" t="s">
-        <v>301</v>
-      </c>
       <c r="G20" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External attacker generates a physical threat causing a Destruction of the Sensors of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Not serious issue</v>
       </c>
-      <c r="J20" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="89" t="s">
-        <v>403</v>
-      </c>
-      <c r="M20" s="105" t="s">
-        <v>380</v>
-      </c>
-      <c r="N20" s="80"/>
-      <c r="O20" s="50"/>
+      <c r="J20" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="K20" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="L20" s="77"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-    </row>
-    <row r="21" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -7557,16 +7444,16 @@
         <v>150</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>226</v>
@@ -7576,69 +7463,61 @@
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="M21" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="N21" s="80"/>
-      <c r="O21" s="50"/>
+        <v>302</v>
+      </c>
+      <c r="K21" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="L21" s="77"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-    </row>
-    <row r="22" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" s="102" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <v>21</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="87" t="s">
+      <c r="D22" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="H22" s="94" t="s">
+      <c r="F22" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="92" t="str">
+      <c r="I22" s="89" t="str">
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J22" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22" s="95"/>
-      <c r="L22" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="M22" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="N22" s="108"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-    </row>
-    <row r="23" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="J22" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <v>22</v>
       </c>
@@ -7649,16 +7528,16 @@
         <v>150</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E23" s="61" t="s">
         <v>243</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H23" s="67" t="s">
         <v>226</v>
@@ -7668,69 +7547,61 @@
         <v>External supplier generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="M23" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="N23" s="80"/>
-      <c r="O23" s="50"/>
+        <v>307</v>
+      </c>
+      <c r="K23" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="L23" s="77"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-    </row>
-    <row r="24" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" s="102" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <v>23</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="88" t="s">
+      <c r="D24" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="88" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="96" t="s">
+      <c r="F24" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="I24" s="93" t="str">
+      <c r="I24" s="90" t="str">
         <f t="shared" si="0"/>
         <v>External supplier generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J24" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="88" t="s">
-        <v>312</v>
-      </c>
-      <c r="M24" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="N24" s="108"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-    </row>
-    <row r="25" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="J24" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+    </row>
+    <row r="25" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>24</v>
       </c>
@@ -7741,16 +7612,16 @@
         <v>150</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>226</v>
@@ -7759,222 +7630,202 @@
         <f t="shared" si="0"/>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quantity issue</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="M25" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" s="110" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="J25" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" s="102" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <v>25</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="87" t="s">
+      <c r="D26" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" s="94" t="s">
+      <c r="F26" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="92" t="str">
+      <c r="I26" s="89" t="str">
         <f t="shared" si="0"/>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the DS11 Flow forecast which affects Sewers or Wastewater treatment plant and might lead to a Quality issue</v>
       </c>
-      <c r="J26" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="M26" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-    </row>
-    <row r="27" spans="1:21" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="J26" s="89" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+    </row>
+    <row r="27" spans="1:19" s="47" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <v>26</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>344</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I27" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a manipulation of the data of the ALERT SYSTEM of the Early Warning System 
 for bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
-      <c r="J27" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="M27" s="105" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="J27" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="K27" s="97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <v>27</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>344</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I28" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a manipulation of the data of the ALERT SYSTEM of the Early Warning System 
 for bathing water quality which affects Digital solution users and might lead to a Information leak issue</v>
       </c>
-      <c r="J28" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="M28" s="105" t="s">
-        <v>375</v>
-      </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
+      <c r="J28" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="54">
         <v>28</v>
       </c>
-      <c r="B29" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="74" t="s">
+      <c r="B29" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" s="74" t="s">
-        <v>332</v>
+      <c r="D29" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>325</v>
       </c>
       <c r="I29" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the ML Based Early warning system for bathing water of the Early Warning System 
 for bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
-      <c r="J29" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="M29" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="K29" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
       <c r="P29" s="47"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-    </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="54">
         <v>29</v>
       </c>
-      <c r="B30" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="74" t="s">
+      <c r="B30" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H30" s="74" t="s">
+      <c r="D30" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="71" t="s">
         <v>230</v>
       </c>
       <c r="I30" s="56" t="str">
@@ -7982,93 +7833,85 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the ML Based Early warning system for bathing water of the Early Warning System 
 for bathing water quality which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
-      <c r="J30" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="M30" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="K30" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-    </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54">
         <v>30</v>
       </c>
-      <c r="B31" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" s="74" t="s">
+      <c r="B31" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>354</v>
+      <c r="D31" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>347</v>
       </c>
       <c r="I31" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the ML Based Early warning system for bathing water of the Early Warning System 
 for bathing water quality which affects Digital solution users and might lead to a Health issues issue</v>
       </c>
-      <c r="J31" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K31" s="92"/>
-      <c r="L31" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="M31" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K31" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-    </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
         <v>31</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H32" s="59" t="s">
         <v>221</v>
@@ -8079,43 +7922,39 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="M32" s="105" t="s">
-        <v>388</v>
-      </c>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
+        <v>309</v>
+      </c>
+      <c r="K32" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-    </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
         <v>32</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H33" s="55" t="s">
         <v>221</v>
@@ -8126,28 +7965,24 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="M33" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
+        <v>309</v>
+      </c>
+      <c r="K33" s="96" t="s">
+        <v>377</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-    </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="58">
         <v>33</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34" s="59" t="s">
         <v>150</v>
@@ -8159,10 +7994,10 @@
         <v>243</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H34" s="59" t="s">
         <v>221</v>
@@ -8173,28 +8008,24 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="M34" s="105" t="s">
-        <v>363</v>
-      </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
+        <v>405</v>
+      </c>
+      <c r="K34" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-    </row>
-    <row r="35" spans="1:21" s="3" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58">
         <v>34</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>150</v>
@@ -8206,13 +8037,13 @@
         <v>243</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I35" s="60" t="str">
         <f t="shared" si="0"/>
@@ -8220,28 +8051,24 @@
 for safe water reuse which affects Irrigation water and might lead to a Health issues issue</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="M35" s="105" t="s">
-        <v>363</v>
-      </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
+        <v>405</v>
+      </c>
+      <c r="K35" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-    </row>
-    <row r="36" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="54">
         <v>35</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C36" s="55" t="s">
         <v>150</v>
@@ -8253,10 +8080,10 @@
         <v>243</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H36" s="57" t="s">
         <v>230</v>
@@ -8267,28 +8094,24 @@
 for safe water reuse which affects Irrigation water and might lead to a Reputation issue</v>
       </c>
       <c r="J36" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="M36" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
+        <v>312</v>
+      </c>
+      <c r="K36" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-    </row>
-    <row r="37" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="54">
         <v>36</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>150</v>
@@ -8300,10 +8123,10 @@
         <v>243</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H37" s="55" t="s">
         <v>221</v>
@@ -8314,43 +8137,39 @@
 for safe water reuse which affects Irrigation water and might lead to a Quality issue</v>
       </c>
       <c r="J37" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="M37" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
+        <v>312</v>
+      </c>
+      <c r="K37" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-    </row>
-    <row r="38" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
         <v>37</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H38" s="59" t="s">
         <v>226</v>
@@ -8360,43 +8179,39 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Match-making tool which affects Digital solution users and might lead to a Quantity issue</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="M38" s="105" t="s">
-        <v>387</v>
-      </c>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
+        <v>317</v>
+      </c>
+      <c r="K38" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-    </row>
-    <row r="39" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="58">
         <v>38</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H39" s="59" t="s">
         <v>221</v>
@@ -8406,43 +8221,39 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Match-making tool which affects Digital solution users and might lead to a Quality issue</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="M39" s="105" t="s">
-        <v>386</v>
-      </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
+        <v>317</v>
+      </c>
+      <c r="K39" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="1:21" s="47" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:19" s="47" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54">
         <v>39</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C40" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E40" s="55" t="s">
         <v>243</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H40" s="55" t="s">
         <v>226</v>
@@ -8452,43 +8263,39 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the Match-making tool which affects Digital solution users and might lead to a Quantity issue</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="M40" s="104" t="s">
-        <v>389</v>
-      </c>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
+        <v>317</v>
+      </c>
+      <c r="K40" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
       <c r="P40" s="46"/>
       <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-    </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54">
         <v>40</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E41" s="55" t="s">
         <v>243</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H41" s="55" t="s">
         <v>221</v>
@@ -8498,91 +8305,83 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Server of the Match-making tool which affects Digital solution users and might lead to a Quality issue</v>
       </c>
       <c r="J41" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="M41" s="104" t="s">
-        <v>389</v>
-      </c>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+        <v>317</v>
+      </c>
+      <c r="K41" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-    </row>
-    <row r="42" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+    </row>
+    <row r="42" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="58">
         <v>41</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E42" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I42" s="60" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Match-making tool which affects Digital solution users and might lead to a Damage to stakeholder activtiy issue</v>
       </c>
-      <c r="J42" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="M42" s="105" t="s">
-        <v>391</v>
-      </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
+      <c r="J42" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="K42" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:21" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="58">
         <v>42</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C43" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E43" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H43" s="66" t="s">
         <v>230</v>
@@ -8591,70 +8390,62 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Match-making tool which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
-      <c r="J43" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="M43" s="105" t="s">
-        <v>391</v>
-      </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
+      <c r="J43" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-    </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="54">
         <v>43</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I44" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web application of the Match-making tool which affects Digital solution users and might lead to a Information Leak issue</v>
       </c>
       <c r="J44" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="M44" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+        <v>315</v>
+      </c>
+      <c r="K44" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="58">
         <v>44</v>
       </c>
@@ -8665,13 +8456,13 @@
         <v>212</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E45" s="67" t="s">
         <v>243</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G45" s="67" t="s">
         <v>232</v>
@@ -8683,184 +8474,168 @@
         <f t="shared" si="0"/>
         <v>Human fault generates a Cyber threat causing a Manipulation of the data of the Server of the ML Based Early warning system for bathing water which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
-      <c r="J45" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="72" t="s">
-        <v>409</v>
-      </c>
-      <c r="M45" s="105" t="s">
-        <v>366</v>
-      </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
+      <c r="J45" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="K45" s="97" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-    </row>
-    <row r="46" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="54">
         <v>45</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" s="74" t="s">
+      <c r="B46" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="F46" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="74" t="s">
-        <v>332</v>
+      <c r="D46" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="71" t="s">
+        <v>325</v>
       </c>
       <c r="I46" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a False information issue</v>
       </c>
-      <c r="J46" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="M46" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
+      <c r="J46" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="K46" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-    </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="54">
         <v>46</v>
       </c>
-      <c r="B47" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" s="74" t="s">
+      <c r="B47" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="G47" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H47" s="74" t="s">
-        <v>354</v>
+      <c r="D47" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" s="71" t="s">
+        <v>347</v>
       </c>
       <c r="I47" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a Health issues issue</v>
       </c>
-      <c r="J47" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="M47" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
+      <c r="J47" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K47" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-    </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+    </row>
+    <row r="48" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="54">
         <v>47</v>
       </c>
-      <c r="B48" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="74" t="s">
+      <c r="B48" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="G48" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H48" s="74" t="s">
+      <c r="D48" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="71" t="s">
         <v>230</v>
       </c>
       <c r="I48" s="56" t="str">
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Web applicaton of the Mobile Apps to communicate bathing water quality which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
-      <c r="J48" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="M48" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
+      <c r="J48" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K48" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-    </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="58">
         <v>48</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G49" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H49" s="59" t="s">
         <v>230</v>
@@ -8870,23 +8645,19 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J49" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="M49" s="105" t="s">
-        <v>392</v>
-      </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
+        <v>320</v>
+      </c>
+      <c r="K49" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-    </row>
-    <row r="50" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="54">
         <v>49</v>
       </c>
@@ -8900,13 +8671,13 @@
         <v>223</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H50" s="57" t="s">
         <v>230</v>
@@ -8916,23 +8687,19 @@
         <v>Internal attacker generates a cyber threat causing a Manipulation of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J50" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="M50" s="104" t="s">
-        <v>393</v>
-      </c>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
+        <v>341</v>
+      </c>
+      <c r="K50" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-    </row>
-    <row r="51" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="58">
         <v>50</v>
       </c>
@@ -8943,16 +8710,16 @@
         <v>150</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H51" s="59" t="s">
         <v>230</v>
@@ -8962,23 +8729,19 @@
         <v>Internal attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J51" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="M51" s="105" t="s">
-        <v>397</v>
-      </c>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
+        <v>389</v>
+      </c>
+      <c r="K51" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-    </row>
-    <row r="52" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="54">
         <v>51</v>
       </c>
@@ -8989,16 +8752,16 @@
         <v>150</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H52" s="57" t="s">
         <v>216</v>
@@ -9007,70 +8770,62 @@
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J52" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K52" s="92"/>
-      <c r="L52" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="M52" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
+      <c r="J52" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-    </row>
-    <row r="53" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="54">
         <v>52</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="F53" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="G53" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="H53" s="74" t="s">
+      <c r="D53" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="71" t="s">
         <v>221</v>
       </c>
       <c r="I53" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
-      <c r="J53" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="K53" s="56"/>
-      <c r="L53" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="M53" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
+      <c r="J53" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-    </row>
-    <row r="54" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="54">
         <v>53</v>
       </c>
@@ -9081,16 +8836,16 @@
         <v>150</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H54" s="57" t="s">
         <v>230</v>
@@ -9099,44 +8854,40 @@
         <f t="shared" si="0"/>
         <v>Internal attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
-      <c r="J54" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="M54" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
+      <c r="J54" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="K54" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-    </row>
-    <row r="55" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="58">
         <v>54</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D55" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H55" s="66" t="s">
         <v>216</v>
@@ -9145,44 +8896,40 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J55" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K55" s="60"/>
-      <c r="L55" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="M55" s="105" t="s">
-        <v>362</v>
-      </c>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
+      <c r="J55" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="K55" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-    </row>
-    <row r="56" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:17" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="58">
         <v>55</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H56" s="66" t="s">
         <v>221</v>
@@ -9191,44 +8938,40 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
-      <c r="J56" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K56" s="60"/>
-      <c r="L56" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="M56" s="105" t="s">
-        <v>362</v>
-      </c>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
+      <c r="J56" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-    </row>
-    <row r="57" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="58">
         <v>56</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C57" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H57" s="66" t="s">
         <v>230</v>
@@ -9237,44 +8980,40 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
-      <c r="J57" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K57" s="60"/>
-      <c r="L57" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="M57" s="105" t="s">
-        <v>362</v>
-      </c>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
+      <c r="J57" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="K57" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
       <c r="P57" s="47"/>
       <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-    </row>
-    <row r="58" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="54">
         <v>57</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C58" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G58" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H58" s="57" t="s">
         <v>216</v>
@@ -9283,44 +9022,40 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J58" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K58" s="92"/>
-      <c r="L58" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="M58" s="104" t="s">
-        <v>418</v>
-      </c>
+      <c r="J58" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="K58" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-    </row>
-    <row r="59" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="54">
         <v>58</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C59" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H59" s="57" t="s">
         <v>221</v>
@@ -9329,44 +9064,40 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Temperature sensor Web-Platform  which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
-      <c r="J59" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K59" s="92"/>
-      <c r="L59" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="M59" s="104" t="s">
-        <v>418</v>
-      </c>
+      <c r="J59" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="K59" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-    </row>
-    <row r="60" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:17" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="58">
         <v>59</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C60" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="59" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H60" s="66" t="s">
         <v>216</v>
@@ -9378,41 +9109,37 @@
       <c r="J60" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="K60" s="93"/>
-      <c r="L60" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="M60" s="77">
+      <c r="K60" s="74">
         <v>27</v>
       </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-    </row>
-    <row r="61" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="58">
         <v>60</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C61" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H61" s="66" t="s">
         <v>221</v>
@@ -9424,41 +9151,37 @@
       <c r="J61" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="K61" s="93"/>
-      <c r="L61" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="M61" s="77">
+      <c r="K61" s="74">
         <v>27</v>
       </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-    </row>
-    <row r="62" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="54">
         <v>61</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E62" s="63" t="s">
         <v>243</v>
       </c>
       <c r="F62" s="63" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G62" s="63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H62" s="62" t="s">
         <v>216</v>
@@ -9467,24 +9190,20 @@
         <f>CONCATENATE(B62," generates a ",C62," threat causing a ",D62," of the ",E62," of the ",F62," which affects ",G62," and might lead to a ",H62," issue")</f>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Temperature sensor Web-Platform which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J62" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="K62" s="92"/>
-      <c r="L62" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="M62" s="76" t="s">
-        <v>363</v>
-      </c>
+      <c r="J62" s="92" t="s">
+        <v>409</v>
+      </c>
+      <c r="K62" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-    </row>
-    <row r="63" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="58">
         <v>62</v>
       </c>
@@ -9495,42 +9214,38 @@
         <v>150</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E63" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G63" s="59" t="s">
         <v>232</v>
       </c>
       <c r="H63" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="I63" s="82" t="str">
+        <v>325</v>
+      </c>
+      <c r="I63" s="79" t="str">
         <f>CONCATENATE(B63," generates a ",C63," threat causing a ",D63," of the ",E63," of the ",F63," which affects ",G63," and might lead to a ",H63," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
-      <c r="J63" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="K63" s="82"/>
-      <c r="L63" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="M63" s="106" t="s">
-        <v>371</v>
-      </c>
+      <c r="J63" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="K63" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-    </row>
-    <row r="64" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="58">
         <v>63</v>
       </c>
@@ -9541,42 +9256,38 @@
         <v>150</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E64" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G64" s="59" t="s">
         <v>232</v>
       </c>
       <c r="H64" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="I64" s="82" t="str">
-        <f t="shared" ref="I64:I101" si="1">CONCATENATE(B64," generates a ",C64," threat causing a ",D64," of the ",E64," of the ",F64," which affects ",G64," and might lead to a ",H64," issue")</f>
+        <v>350</v>
+      </c>
+      <c r="I64" s="79" t="str">
+        <f t="shared" ref="I64:I67" si="1">CONCATENATE(B64," generates a ",C64," threat causing a ",D64," of the ",E64," of the ",F64," which affects ",G64," and might lead to a ",H64," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information Leak issue</v>
       </c>
-      <c r="J64" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="K64" s="82"/>
-      <c r="L64" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="M64" s="106" t="s">
-        <v>371</v>
-      </c>
+      <c r="J64" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="K64" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-    </row>
-    <row r="65" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="58">
         <v>64</v>
       </c>
@@ -9587,42 +9298,38 @@
         <v>150</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E65" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G65" s="59" t="s">
         <v>232</v>
       </c>
       <c r="H65" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="I65" s="82" t="str">
+        <v>334</v>
+      </c>
+      <c r="I65" s="79" t="str">
         <f>CONCATENATE(B65," generates a ",C65," threat causing a ",D65," of the ",E65," of the ",F65," which affects ",G65," and might lead to a ",H65," issue")</f>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
-      <c r="J65" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="K65" s="82"/>
-      <c r="L65" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="M65" s="77" t="s">
-        <v>373</v>
-      </c>
+      <c r="J65" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-    </row>
-    <row r="66" spans="1:19" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:17" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="58">
         <v>65</v>
       </c>
@@ -9633,42 +9340,38 @@
         <v>150</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E66" s="59" t="s">
         <v>243</v>
       </c>
       <c r="F66" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G66" s="59" t="s">
         <v>232</v>
       </c>
       <c r="H66" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="I66" s="82" t="str">
+        <v>325</v>
+      </c>
+      <c r="I66" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a False information issue</v>
       </c>
-      <c r="J66" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="K66" s="82"/>
-      <c r="L66" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="M66" s="77" t="s">
-        <v>373</v>
-      </c>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
+      <c r="J66" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="K66" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-    </row>
-    <row r="67" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="54">
         <v>66</v>
       </c>
@@ -9679,13 +9382,13 @@
         <v>150</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>243</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G67" s="55" t="s">
         <v>232</v>
@@ -9693,28 +9396,24 @@
       <c r="H67" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="I67" s="83" t="str">
+      <c r="I67" s="80" t="str">
         <f t="shared" si="1"/>
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
-      <c r="J67" s="83" t="s">
-        <v>322</v>
-      </c>
-      <c r="K67" s="83"/>
-      <c r="L67" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="M67" s="76" t="s">
-        <v>373</v>
-      </c>
+      <c r="J67" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="K67" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-    </row>
-    <row r="68" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="54">
         <v>67</v>
       </c>
@@ -9725,13 +9424,13 @@
         <v>150</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E68" s="55" t="s">
         <v>243</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G68" s="55" t="s">
         <v>232</v>
@@ -9739,48 +9438,44 @@
       <c r="H68" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="I68" s="83" t="str">
+      <c r="I68" s="80" t="str">
         <f>CONCATENATE(B68," generates a ",C68," threat causing a ",D68," of the ",E68," of the ",F68," which affects ",G68," and might lead to a ",H68," issue")</f>
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the ALERT SYSTEM which affects Raw water bodies and might lead to a Reputation issue</v>
       </c>
-      <c r="J68" s="83" t="s">
-        <v>322</v>
-      </c>
-      <c r="K68" s="83"/>
-      <c r="L68" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="M68" s="76" t="s">
-        <v>373</v>
-      </c>
+      <c r="J68" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="K68" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-    </row>
-    <row r="69" spans="1:19" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="58">
         <v>68</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C69" s="59" t="s">
         <v>150</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E69" s="59" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F69" s="59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H69" s="59" t="s">
         <v>230</v>
@@ -9790,334 +9485,286 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious Game which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J69" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="M69" s="105" t="s">
-        <v>395</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K69" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-    </row>
-    <row r="70" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="84"/>
+    </row>
+    <row r="70" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="81"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-    </row>
-    <row r="71" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="84"/>
+    </row>
+    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="81"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-    </row>
-    <row r="72" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="84"/>
+    </row>
+    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="81"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-    </row>
-    <row r="73" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="84"/>
+    </row>
+    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="81"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-    </row>
-    <row r="74" spans="1:19" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="84"/>
+    </row>
+    <row r="74" spans="1:17" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="81"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18"/>
       <c r="L74" s="15"/>
-      <c r="M74" s="18"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-    </row>
-    <row r="75" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="84"/>
+    </row>
+    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="81"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="15"/>
-      <c r="M75" s="18"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-    </row>
-    <row r="76" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="84"/>
+    </row>
+    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="81"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-    </row>
-    <row r="77" spans="1:19" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="84"/>
+    </row>
+    <row r="77" spans="1:17" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="81"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-    </row>
-    <row r="78" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="84"/>
+    </row>
+    <row r="78" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="81"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-    </row>
-    <row r="79" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="84"/>
+    </row>
+    <row r="79" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="81"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-    </row>
-    <row r="80" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="84"/>
+    </row>
+    <row r="80" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="81"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-    </row>
-    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="84"/>
+    </row>
+    <row r="81" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="81"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
       <c r="N81" s="19"/>
       <c r="O81" s="19"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-    </row>
-    <row r="82" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="84"/>
+    </row>
+    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="81"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
       <c r="N82" s="19"/>
       <c r="O82" s="19"/>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-    </row>
-    <row r="83" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="84"/>
+    </row>
+    <row r="83" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="81"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="20"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-    </row>
-    <row r="84" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="84"/>
+    </row>
+    <row r="84" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="81"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-    </row>
-    <row r="85" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="84"/>
+    </row>
+    <row r="85" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="81"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-    </row>
-    <row r="86" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="84"/>
+    </row>
+    <row r="86" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="81"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="18"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-    </row>
-    <row r="87" spans="1:21" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="84"/>
+    </row>
+    <row r="87" spans="1:19" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="81"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="20"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-    </row>
-    <row r="88" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="84"/>
+    </row>
+    <row r="88" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="81"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="20"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-    </row>
-    <row r="89" spans="1:21" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="84"/>
+    </row>
+    <row r="89" spans="1:19" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="81"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="15"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-    </row>
-    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="84"/>
+    </row>
+    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="81"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="15"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-    </row>
-    <row r="91" spans="1:21" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="84"/>
+    </row>
+    <row r="91" spans="1:19" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="81"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="15"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
+      <c r="R91" s="15"/>
       <c r="S91" s="11"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="11"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="84"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="81"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -10125,12 +9772,10 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="20"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="84"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="81"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -10138,12 +9783,10 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="20"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="84"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="81"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -10151,12 +9794,10 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="21"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="84"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="81"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -10164,12 +9805,10 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="21"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="84"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="81"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -10177,11 +9816,9 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="84"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="81"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -10189,10 +9826,9 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="84"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="81"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -10200,10 +9836,9 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="84"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="81"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -10211,10 +9846,9 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="84"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="81"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -10222,10 +9856,9 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="84"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="81"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -10234,11 +9867,10 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U101" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U91">
+  <autoFilter ref="A1:S101" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S91">
       <sortCondition ref="F1:F91"/>
     </sortState>
   </autoFilter>
@@ -10248,6 +9880,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC571BF4-DD2E-E449-8704-AC0F3FFEEE13}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -10276,15 +9923,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
+      <c r="A1" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10300,13 +9947,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>211</v>
@@ -10321,13 +9968,13 @@
         <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>215</v>
@@ -10347,13 +9994,13 @@
         <v>217</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>220</v>
@@ -10376,10 +10023,10 @@
         <v>223</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>225</v>
@@ -10397,13 +10044,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>229</v>
@@ -10421,14 +10068,14 @@
         <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="30"/>
@@ -10439,14 +10086,14 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="30"/>
@@ -10457,14 +10104,14 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="30"/>
@@ -10475,14 +10122,14 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>237</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="30"/>
@@ -10493,14 +10140,14 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -10513,7 +10160,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -10848,70 +10495,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC1568021308007D9A44593717FD459F2251A9B7FBE71C" ma:contentTypeVersion="47" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ab4005d24905ce748abc3222dd769ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="7bdb29a1-6c05-4985-aeaa-94b963d0ed58" xmlns:ns4="a9260caa-56b2-4fff-8c54-08cce2d35f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07833896cc6ce16441ca1bfabcee7232" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
@@ -11468,6 +11051,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
   <ds:schemaRefs>
@@ -11477,24 +11124,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44318AEA-79F5-4235-8B02-6DD2CEC3378F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11512,4 +11141,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A775A02-B294-B04F-ABCB-789DAE6325F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A166F-2FE1-574A-8A9F-9995AC1C02D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
     <sheet name="STOP-IT Database" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="STOP-IT Options" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="DWC - Database" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="DWC - Options" sheetId="5" r:id="rId6"/>
+    <sheet name="DWC - Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$S$101</definedName>
@@ -6555,7 +6554,7 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
@@ -9880,28 +9879,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC571BF4-DD2E-E449-8704-AC0F3FFEEE13}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -10486,12 +10470,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11052,73 +11091,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11144,19 +11138,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef.sharepoint.com/teams/work-8759/Shared Documents/WP4/T4.2/D4.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{8A775A02-B294-B04F-ABCB-789DAE6325F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6211200-F166-48BC-8AD2-98404EE0712C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811E95-CD8D-F542-845F-CF50F1164D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="415">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -1281,9 +1281,6 @@
     <t>27, 28, 46, 48, 54, 67</t>
   </si>
   <si>
-    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an illicit connection (or to hide one), thus leading to the dispatch of a team (or not). </t>
-  </si>
-  <si>
     <t>46, 48, 54, 67</t>
   </si>
   <si>
@@ -1415,12 +1412,18 @@
   <si>
     <t>Smart sewer cleaning system with HD camera and wireless communication</t>
   </si>
+  <si>
+    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an overflow (or to hide one). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an an overflow (or to hide one). </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,6 +2022,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2033,12 +2042,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2353,45 +2356,45 @@
   </sheetPr>
   <dimension ref="A3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="79"/>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="79"/>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A5" s="79"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A7" s="79"/>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A8" s="79"/>
+    <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1">
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
     </row>
   </sheetData>
@@ -2513,23 +2516,23 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="54.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="54.81640625" style="10" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="54.83203125" style="10" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43.5">
+    <row r="2" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58">
+    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="58">
+    <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5">
+    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.5">
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="58">
+    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5">
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="43.5">
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="58">
+    <row r="10" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="58">
+    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="87">
+    <row r="12" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1">
+    <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="43.5">
+    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="72.5">
+    <row r="15" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="72.5">
+    <row r="16" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="72.5">
+    <row r="17" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="43.5">
+    <row r="18" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="43.5">
+    <row r="19" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="43.5">
+    <row r="20" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="58">
+    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="43.5">
+    <row r="22" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="87">
+    <row r="23" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="58">
+    <row r="24" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="58">
+    <row r="25" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" ht="43.5">
+    <row r="26" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3363,7 +3366,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" ht="107.25" customHeight="1">
+    <row r="27" spans="1:16" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3400,7 +3403,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" ht="58">
+    <row r="28" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3437,7 +3440,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" ht="43.5">
+    <row r="29" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="58">
+    <row r="30" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="58">
+    <row r="31" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="43.5">
+    <row r="32" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72.5">
+    <row r="33" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="58">
+    <row r="34" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3642,7 +3645,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" ht="58">
+    <row r="35" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="72.5">
+    <row r="36" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="58">
+    <row r="37" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="1:16" ht="58">
+    <row r="38" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>External attacker generates a physical caused destruction of power transformer affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="43.5">
+    <row r="39" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="72.5">
+    <row r="40" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="58">
+    <row r="41" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="43.5">
+    <row r="42" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3910,7 +3913,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" ht="87">
+    <row r="43" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="58">
+    <row r="44" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" ht="72.5">
+    <row r="45" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="58">
+    <row r="46" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4062,7 +4065,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" ht="43.5">
+    <row r="47" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4099,7 +4102,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="43.5">
+    <row r="48" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4138,7 +4141,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" ht="43.5">
+    <row r="49" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" ht="58">
+    <row r="50" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" ht="72.5">
+    <row r="51" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4259,7 +4262,7 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" ht="43.5">
+    <row r="52" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4298,7 +4301,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" ht="58">
+    <row r="53" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4335,7 +4338,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" ht="58">
+    <row r="54" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" ht="58">
+    <row r="55" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4411,7 +4414,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" ht="43.5">
+    <row r="56" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4448,7 +4451,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" ht="43.5">
+    <row r="57" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
     </row>
-    <row r="58" spans="1:16" ht="58">
+    <row r="58" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4522,7 +4525,7 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16" ht="58">
+    <row r="59" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="1:16" ht="72.5">
+    <row r="60" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4596,7 +4599,7 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
     </row>
-    <row r="61" spans="1:16" ht="43.5">
+    <row r="61" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4635,7 +4638,7 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16" ht="43.5">
+    <row r="62" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4672,7 +4675,7 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" ht="43.5">
+    <row r="63" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4709,7 +4712,7 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" ht="43.5">
+    <row r="64" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4743,7 +4746,7 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="1:16" ht="92.25" customHeight="1">
+    <row r="65" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4780,7 +4783,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
     </row>
-    <row r="66" spans="1:16" ht="58">
+    <row r="66" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4817,7 +4820,7 @@
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="1:16" ht="110.25" customHeight="1">
+    <row r="68" spans="1:16" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4893,7 +4896,7 @@
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="1:16" ht="58">
+    <row r="69" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4930,7 +4933,7 @@
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="1:16" ht="72.5">
+    <row r="70" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4977,7 +4980,7 @@
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="1:16" ht="58">
+    <row r="71" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="58">
+    <row r="72" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="43.5">
+    <row r="73" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5094,7 +5097,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="58">
+    <row r="74" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5131,7 +5134,7 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" ht="58">
+    <row r="75" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="72.5">
+    <row r="76" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="59.25" customHeight="1">
+    <row r="78" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="72.5">
+    <row r="79" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="60" customHeight="1">
+    <row r="80" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="43.5">
+    <row r="81" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="54" customHeight="1">
+    <row r="82" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5391,7 +5394,7 @@
       <c r="Q82" s="14"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="21"/>
     </row>
   </sheetData>
@@ -5424,23 +5427,23 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1">
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>205</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>40</v>
       </c>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>110</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>155</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="D8" t="s">
         <v>231</v>
@@ -5569,7 +5572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="D9" t="s">
         <v>233</v>
@@ -5578,51 +5581,51 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="D10" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="D11" t="s">
         <v>236</v>
       </c>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="D12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="D13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="D14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="D15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="D16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="D17" t="s">
@@ -5630,68 +5633,68 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="D18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="D19" t="s">
         <v>243</v>
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="D20" t="s">
         <v>244</v>
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="D21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="D22" t="s">
         <v>246</v>
       </c>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="D23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="35.25" customHeight="1">
+    <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="83" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -5710,9 +5713,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="82"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="35">
         <v>1</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="40" t="s">
         <v>254</v>
@@ -5750,7 +5753,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="40" t="s">
         <v>260</v>
@@ -5771,7 +5774,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+    <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="40" t="s">
         <v>266</v>
@@ -5792,7 +5795,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.5">
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="40" t="s">
         <v>272</v>
@@ -5807,7 +5810,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="58">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="40" t="s">
         <v>227</v>
@@ -5828,97 +5831,97 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
     </row>
   </sheetData>
@@ -5941,27 +5944,27 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.83203125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72.5">
+    <row r="2" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <v>1</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>287</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>229</v>
@@ -6032,7 +6035,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="72.5">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>287</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>229</v>
@@ -6068,7 +6071,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="87">
+    <row r="4" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
         <v>3</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>287</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>294</v>
@@ -6104,7 +6107,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="87">
+    <row r="5" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>287</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>294</v>
@@ -6140,7 +6143,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="72.5">
+    <row r="6" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
         <v>5</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>287</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>229</v>
@@ -6176,7 +6179,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="72.5">
+    <row r="7" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
         <v>6</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>287</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G7" s="60" t="s">
         <v>229</v>
@@ -6212,7 +6215,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72.5">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <v>7</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>287</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>229</v>
@@ -6248,7 +6251,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="72.5">
+    <row r="9" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>240</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>229</v>
@@ -6284,7 +6287,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72.5">
+    <row r="10" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -6300,8 +6303,8 @@
       <c r="E10" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="84" t="s">
-        <v>390</v>
+      <c r="F10" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>229</v>
@@ -6320,7 +6323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72.5">
+    <row r="11" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>10</v>
       </c>
@@ -6336,8 +6339,8 @@
       <c r="E11" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>390</v>
+      <c r="F11" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G11" s="60" t="s">
         <v>229</v>
@@ -6356,7 +6359,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="73.5" customHeight="1">
+    <row r="12" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>294</v>
@@ -6392,7 +6395,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="74.5" customHeight="1">
+    <row r="13" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>12</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>240</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="51" t="s">
         <v>294</v>
@@ -6428,7 +6431,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="74.5" customHeight="1">
+    <row r="14" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <v>13</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>240</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>294</v>
@@ -6464,7 +6467,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="103.5" customHeight="1">
+    <row r="15" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>14</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>311</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>294</v>
@@ -6500,7 +6503,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="73.75" customHeight="1">
+    <row r="16" spans="1:11" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <v>15</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>311</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>294</v>
@@ -6536,7 +6539,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="71.5" customHeight="1">
+    <row r="17" spans="1:11" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <v>16</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>311</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>294</v>
@@ -6572,7 +6575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="88.5" customHeight="1">
+    <row r="18" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <v>17</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>287</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>294</v>
@@ -6608,7 +6611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="72.5">
+    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="50">
         <v>18</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>287</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>294</v>
@@ -6644,7 +6647,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="74.5" customHeight="1">
+    <row r="20" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55">
         <v>19</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>287</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G20" s="61" t="s">
         <v>294</v>
@@ -6680,7 +6683,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="72.5">
+    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <v>20</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>240</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>294</v>
@@ -6716,7 +6719,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="22" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>21</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>240</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>294</v>
@@ -6752,7 +6755,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72.5">
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="55">
         <v>22</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>240</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G23" s="61" t="s">
         <v>294</v>
@@ -6788,7 +6791,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="24" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="55">
         <v>23</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>240</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>294</v>
@@ -6824,7 +6827,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="72.5">
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>24</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>240</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>294</v>
@@ -6860,7 +6863,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="26" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>25</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>240</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>294</v>
@@ -6896,7 +6899,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="87">
+    <row r="27" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="55">
         <v>26</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>288</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>330</v>
@@ -6932,7 +6935,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="87">
+    <row r="28" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="55">
         <v>27</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>288</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>330</v>
@@ -6968,7 +6971,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="87">
+    <row r="29" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
         <v>28</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>334</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G29" s="64" t="s">
         <v>330</v>
@@ -7004,7 +7007,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="87">
+    <row r="30" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>29</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>334</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>330</v>
@@ -7040,7 +7043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1">
+    <row r="31" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50">
         <v>30</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>334</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>330</v>
@@ -7076,7 +7079,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72.5">
+    <row r="32" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="55">
         <v>31</v>
       </c>
@@ -7092,8 +7095,8 @@
       <c r="E32" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="F32" s="84" t="s">
-        <v>393</v>
+      <c r="F32" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>340</v>
@@ -7112,7 +7115,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="72.5">
+    <row r="33" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="50">
         <v>32</v>
       </c>
@@ -7128,8 +7131,8 @@
       <c r="E33" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="85" t="s">
-        <v>393</v>
+      <c r="F33" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G33" s="78" t="s">
         <v>340</v>
@@ -7148,7 +7151,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="72.5">
+    <row r="34" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="55">
         <v>33</v>
       </c>
@@ -7164,8 +7167,8 @@
       <c r="E34" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="84" t="s">
-        <v>393</v>
+      <c r="F34" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>340</v>
@@ -7184,7 +7187,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="107.25" customHeight="1">
+    <row r="35" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="55">
         <v>34</v>
       </c>
@@ -7200,8 +7203,8 @@
       <c r="E35" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="84" t="s">
-        <v>393</v>
+      <c r="F35" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>340</v>
@@ -7220,7 +7223,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72.5">
+    <row r="36" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="50">
         <v>35</v>
       </c>
@@ -7236,8 +7239,8 @@
       <c r="E36" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="85" t="s">
-        <v>393</v>
+      <c r="F36" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G36" s="60" t="s">
         <v>340</v>
@@ -7256,7 +7259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="72.5">
+    <row r="37" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="50">
         <v>36</v>
       </c>
@@ -7272,8 +7275,8 @@
       <c r="E37" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="85" t="s">
-        <v>393</v>
+      <c r="F37" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G37" s="60" t="s">
         <v>340</v>
@@ -7292,7 +7295,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="87">
+    <row r="38" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>287</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>330</v>
@@ -7328,7 +7331,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="87">
+    <row r="39" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>287</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>330</v>
@@ -7364,7 +7367,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="83.25" customHeight="1">
+    <row r="40" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50">
         <v>39</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>240</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G40" s="60" t="s">
         <v>330</v>
@@ -7400,7 +7403,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="81" customHeight="1">
+    <row r="41" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50">
         <v>40</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>240</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G41" s="60" t="s">
         <v>330</v>
@@ -7436,7 +7439,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="87">
+    <row r="42" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>240</v>
       </c>
       <c r="F42" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>330</v>
@@ -7472,7 +7475,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="87">
+    <row r="43" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="55">
         <v>42</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>240</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>330</v>
@@ -7508,7 +7511,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="87">
+    <row r="44" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="50">
         <v>43</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>311</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G44" s="60" t="s">
         <v>330</v>
@@ -7544,7 +7547,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="72.5">
+    <row r="45" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="55">
         <v>44</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>240</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G45" s="61" t="s">
         <v>229</v>
@@ -7580,7 +7583,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="72.5">
+    <row r="46" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="50">
         <v>45</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>360</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G46" s="64" t="s">
         <v>330</v>
@@ -7616,7 +7619,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="72.5">
+    <row r="47" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="50">
         <v>46</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>360</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G47" s="64" t="s">
         <v>330</v>
@@ -7652,7 +7655,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="72.5">
+    <row r="48" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="50">
         <v>47</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>360</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G48" s="64" t="s">
         <v>330</v>
@@ -7688,7 +7691,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="72.5">
+    <row r="49" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="55">
         <v>48</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>365</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>330</v>
@@ -7724,7 +7727,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="72.5">
+    <row r="50" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="50">
         <v>49</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>365</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G50" s="60" t="s">
         <v>330</v>
@@ -7760,7 +7763,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="72.5">
+    <row r="51" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="55">
         <v>50</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>365</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G51" s="56" t="s">
         <v>330</v>
@@ -7796,7 +7799,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="87">
+    <row r="52" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="50">
         <v>51</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>287</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G52" s="60" t="s">
         <v>372</v>
@@ -7832,7 +7835,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="87">
+    <row r="53" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="50">
         <v>52</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>287</v>
       </c>
       <c r="F53" s="65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G53" s="64" t="s">
         <v>372</v>
@@ -7868,7 +7871,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="87">
+    <row r="54" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="50">
         <v>53</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>287</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G54" s="60" t="s">
         <v>372</v>
@@ -7904,7 +7907,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="87">
+    <row r="55" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="55">
         <v>54</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>287</v>
       </c>
       <c r="F55" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G55" s="56" t="s">
         <v>372</v>
@@ -7933,14 +7936,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K55" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="87">
+    </row>
+    <row r="56" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="55">
         <v>55</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>287</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G56" s="56" t="s">
         <v>372</v>
@@ -7969,14 +7972,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K56" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="87">
+    </row>
+    <row r="57" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="55">
         <v>56</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>287</v>
       </c>
       <c r="F57" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G57" s="56" t="s">
         <v>372</v>
@@ -8005,14 +8008,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K57" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K57" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="72.5">
+    </row>
+    <row r="58" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="50">
         <v>57</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>287</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G58" s="60" t="s">
         <v>372</v>
@@ -8042,13 +8045,13 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J58" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="K58" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="72.5">
+    </row>
+    <row r="59" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" s="50">
         <v>58</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>287</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G59" s="60" t="s">
         <v>372</v>
@@ -8078,13 +8081,13 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
       <c r="J59" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K59" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="K59" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="72.5">
+    </row>
+    <row r="60" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A60" s="55">
         <v>59</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G60" s="56" t="s">
         <v>372</v>
@@ -8114,13 +8117,13 @@
         <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J60" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K60" s="67">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="72.5">
+    <row r="61" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="55">
         <v>60</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>311</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G61" s="56" t="s">
         <v>372</v>
@@ -8150,13 +8153,13 @@
         <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
       <c r="J61" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K61" s="67">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="87">
+    <row r="62" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="50">
         <v>61</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>240</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" s="51" t="s">
         <v>372</v>
@@ -8186,13 +8189,13 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J62" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K62" s="68" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="72.5">
+    <row r="63" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" s="55">
         <v>62</v>
       </c>
@@ -8208,8 +8211,8 @@
       <c r="E63" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="84" t="s">
-        <v>390</v>
+      <c r="F63" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G63" s="56" t="s">
         <v>229</v>
@@ -8222,13 +8225,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J63" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="K63" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="72.5">
+    </row>
+    <row r="64" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="55">
         <v>63</v>
       </c>
@@ -8244,8 +8247,8 @@
       <c r="E64" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="84" t="s">
-        <v>390</v>
+      <c r="F64" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G64" s="56" t="s">
         <v>229</v>
@@ -8258,13 +8261,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Information Leak issue</v>
       </c>
       <c r="J64" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="K64" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="72.5">
+    </row>
+    <row r="65" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="55">
         <v>64</v>
       </c>
@@ -8280,8 +8283,8 @@
       <c r="E65" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="84" t="s">
-        <v>390</v>
+      <c r="F65" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G65" s="56" t="s">
         <v>229</v>
@@ -8294,13 +8297,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J65" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K65" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="K65" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="72.5">
+    </row>
+    <row r="66" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="55">
         <v>65</v>
       </c>
@@ -8316,8 +8319,8 @@
       <c r="E66" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>390</v>
+      <c r="F66" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G66" s="56" t="s">
         <v>229</v>
@@ -8330,13 +8333,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J66" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K66" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="K66" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="72.5">
+    </row>
+    <row r="67" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="50">
         <v>66</v>
       </c>
@@ -8352,8 +8355,8 @@
       <c r="E67" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="85" t="s">
-        <v>390</v>
+      <c r="F67" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G67" s="60" t="s">
         <v>229</v>
@@ -8366,13 +8369,13 @@
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J67" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K67" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="K67" s="68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="72.5">
+    </row>
+    <row r="68" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="50">
         <v>67</v>
       </c>
@@ -8388,8 +8391,8 @@
       <c r="E68" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F68" s="85" t="s">
-        <v>390</v>
+      <c r="F68" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G68" s="60" t="s">
         <v>229</v>
@@ -8402,13 +8405,13 @@
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Reputation issue</v>
       </c>
       <c r="J68" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K68" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="K68" s="68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="72.5">
+    </row>
+    <row r="69" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="55">
         <v>68</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>365</v>
       </c>
       <c r="F69" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G69" s="56" t="s">
         <v>330</v>
@@ -8438,171 +8441,171 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious game on the water reuse, carbon, energy, food and climatic nexus which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J69" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="K69" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="K69" s="59" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
       <c r="I70" s="10"/>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
       <c r="I71" s="10"/>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
       <c r="I72" s="10"/>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
       <c r="I73" s="10"/>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="1:11" ht="92.25" customHeight="1">
+    <row r="74" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
       <c r="I74" s="10"/>
       <c r="J74" s="14"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="46"/>
       <c r="I75" s="10"/>
       <c r="J75" s="14"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="46"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:11" ht="110.25" customHeight="1">
+    <row r="77" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="46"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="46"/>
       <c r="I78" s="10"/>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="46"/>
       <c r="I79" s="10"/>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="46"/>
       <c r="I80" s="10"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="46"/>
       <c r="I81" s="10"/>
       <c r="J81" s="14"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="46"/>
       <c r="I82" s="10"/>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
       <c r="I83" s="10"/>
       <c r="J83" s="14"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
       <c r="I84" s="10"/>
       <c r="J84" s="14"/>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
       <c r="I86" s="10"/>
       <c r="J86" s="18"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11" ht="59.25" customHeight="1">
+    <row r="87" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="46"/>
       <c r="I87" s="10"/>
       <c r="J87" s="18"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="46"/>
       <c r="I88" s="10"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" customHeight="1">
+    <row r="89" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
       <c r="I89" s="10"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="46"/>
       <c r="I90" s="10"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="54" customHeight="1">
+    <row r="91" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="46"/>
       <c r="I91" s="10"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
       <c r="I92" s="10"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
       <c r="I93" s="10"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="46"/>
       <c r="I94" s="10"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="46"/>
       <c r="I95" s="10"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="46"/>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="46"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="46"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="46"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="46"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="46"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -8634,33 +8637,33 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-    </row>
-    <row r="2" spans="1:9" s="22" customFormat="1">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>205</v>
       </c>
@@ -8671,20 +8674,20 @@
         <v>11</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
@@ -8692,13 +8695,13 @@
         <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
         <v>287</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
         <v>212</v>
@@ -8708,7 +8711,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>168</v>
       </c>
@@ -8719,10 +8722,10 @@
         <v>291</v>
       </c>
       <c r="D4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>391</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>392</v>
       </c>
       <c r="F4" t="s">
         <v>217</v>
@@ -8732,7 +8735,7 @@
       </c>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
@@ -8746,7 +8749,7 @@
         <v>311</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
         <v>222</v>
@@ -8755,7 +8758,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>155</v>
       </c>
@@ -8763,10 +8766,10 @@
         <v>310</v>
       </c>
       <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>394</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>395</v>
       </c>
       <c r="F6" t="s">
         <v>226</v>
@@ -8775,15 +8778,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>210</v>
       </c>
       <c r="D7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>396</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>397</v>
       </c>
       <c r="F7" t="s">
         <v>229</v>
@@ -8793,13 +8796,13 @@
       </c>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="D8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>398</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>399</v>
       </c>
       <c r="F8" t="s">
         <v>230</v>
@@ -8809,13 +8812,13 @@
       </c>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="D9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>400</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>401</v>
       </c>
       <c r="F9" t="s">
         <v>232</v>
@@ -8825,13 +8828,13 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>402</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>403</v>
       </c>
       <c r="F10" t="s">
         <v>234</v>
@@ -8841,190 +8844,190 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>404</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>405</v>
       </c>
       <c r="F11" t="s">
         <v>340</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="E12" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="E13" s="77" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="E14" s="77" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="E15" s="77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="D16" s="44"/>
       <c r="E16" s="77" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="D17" s="44"/>
       <c r="E17" s="77" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="D18" s="44"/>
       <c r="E18" s="77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="D19" s="44"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="D20" s="44"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="D21" s="44"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="D23" s="44"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="D24" s="44"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
     </row>
   </sheetData>
@@ -9037,15 +9040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC1568021308007D9A44593717FD459F2251A9B7FBE71C" ma:contentTypeVersion="47" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ab4005d24905ce748abc3222dd769ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="7bdb29a1-6c05-4985-aeaa-94b963d0ed58" xmlns:ns4="a9260caa-56b2-4fff-8c54-08cce2d35f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07833896cc6ce16441ca1bfabcee7232" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
@@ -9602,6 +9596,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9667,14 +9670,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44318AEA-79F5-4235-8B02-6DD2CEC3378F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9694,6 +9689,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>

--- a/data/ridb.xlsx
+++ b/data/ridb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811E95-CD8D-F542-845F-CF50F1164D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C465C5-5452-F543-A4C0-0FEAC7FDB246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="418">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -1417,6 +1417,15 @@
   </si>
   <si>
     <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an an overflow (or to hide one). </t>
+  </si>
+  <si>
+    <t>An attacker manages to intercept data sent to the backend, and create a replay attack which fills the database over the expected limit, creating additional cost.</t>
+  </si>
+  <si>
+    <t>An attacker manages to intercept data sent to the backend, and create a replay attack which fills the database over the expected limit, which can lead to the destruction of data if the database is configured to do so.</t>
+  </si>
+  <si>
+    <t>49, 54, 58, 66, 67, 71, 72, 73, 74</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1823,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2027,6 +2036,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2367,29 +2379,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="82"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -5684,17 +5696,17 @@
     </row>
     <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -5715,7 +5727,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="35">
         <v>1</v>
       </c>
@@ -5944,9 +5956,9 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8447,15 +8459,77 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="14"/>
+    <row r="70" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
+        <v>69</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="53" t="str">
+        <f>CONCATENATE(B70," generates a ",C70," threat causing a ",D70," of the ",E70," of the ",F70," which affects ",G70," and might lead to a ",H70," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Database of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
+      </c>
+      <c r="J70" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="K70" s="68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
+        <v>70</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" s="53" t="str">
+        <f>CONCATENATE(B71," generates a ",C71," threat causing a ",D71," of the ",E71," of the ",F71," which affects ",G71," and might lead to a ",H71," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Database of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J71" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="K71" s="68" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
@@ -8655,13 +8729,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
